--- a/WebinarDemo/templates/Provar-Demo-Leads.xlsx
+++ b/WebinarDemo/templates/Provar-Demo-Leads.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
   <si>
     <t>FirstName</t>
   </si>
@@ -53,7 +53,7 @@
     <t>Washington DC</t>
   </si>
   <si>
-    <t>US</t>
+    <t>United States</t>
   </si>
   <si>
     <t>Geraint Waters</t>
@@ -65,6 +65,9 @@
     <t>Davis</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>tess@provartesting.com</t>
   </si>
   <si>
@@ -77,7 +80,7 @@
     <t>emmanuel@provartesting.com</t>
   </si>
   <si>
-    <t>FR</t>
+    <t>France</t>
   </si>
   <si>
     <t>Richard Clark</t>
@@ -98,7 +101,7 @@
     <t>Brisbane</t>
   </si>
   <si>
-    <t>AU</t>
+    <t>Australia</t>
   </si>
   <si>
     <t>Hetty Boardman-Weston</t>
@@ -116,7 +119,7 @@
     <t>vlad@provartesting.com</t>
   </si>
   <si>
-    <t>RU</t>
+    <t>Russian Federation</t>
   </si>
   <si>
     <t>Zhi</t>
@@ -131,7 +134,7 @@
     <t>Beijing</t>
   </si>
   <si>
-    <t>CN</t>
+    <t>China</t>
   </si>
   <si>
     <t>Efes</t>
@@ -143,7 +146,7 @@
     <t>efes@provartesting.com</t>
   </si>
   <si>
-    <t>TR</t>
+    <t>Turkey</t>
   </si>
   <si>
     <t>J</t>
@@ -152,7 +155,7 @@
     <t>Rodriguez</t>
   </si>
   <si>
-    <t>MX</t>
+    <t>Mexico</t>
   </si>
   <si>
     <t>Indira</t>
@@ -170,7 +173,7 @@
     <t>New Delhi</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>India</t>
   </si>
   <si>
     <t>Jurgen</t>
@@ -185,7 +188,7 @@
     <t>jurgen@provartesting.com</t>
   </si>
   <si>
-    <t>DE</t>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -243,6 +246,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="top"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
@@ -340,12 +346,14 @@
       <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
@@ -355,21 +363,23 @@
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H4" s="4">
         <v>3.0</v>
@@ -377,25 +387,25 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4">
         <v>5.0</v>
@@ -403,23 +413,23 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" s="4">
         <v>4.0</v>
@@ -427,23 +437,25 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4">
         <v>4.0</v>
@@ -451,21 +463,23 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>17</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="E8" s="6"/>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="4">
         <v>3.0</v>
@@ -473,16 +487,18 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>14</v>
@@ -493,25 +509,25 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H10" s="4">
         <v>5.0</v>
@@ -519,3979 +535,3979 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>4.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="F12" s="7"/>
-      <c r="H12" s="7"/>
+      <c r="F12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13">
-      <c r="F13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="8"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14">
-      <c r="F14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15">
-      <c r="F15" s="7"/>
-      <c r="H15" s="7"/>
+      <c r="F15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16">
-      <c r="F16" s="7"/>
-      <c r="H16" s="7"/>
+      <c r="F16" s="8"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17">
-      <c r="F17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="F17" s="8"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18">
-      <c r="F18" s="7"/>
-      <c r="H18" s="7"/>
+      <c r="F18" s="8"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19">
-      <c r="F19" s="7"/>
-      <c r="H19" s="7"/>
+      <c r="F19" s="8"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20">
-      <c r="F20" s="7"/>
-      <c r="H20" s="7"/>
+      <c r="F20" s="8"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21">
-      <c r="F21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="F21" s="8"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22">
-      <c r="F22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="F22" s="8"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23">
-      <c r="F23" s="7"/>
-      <c r="H23" s="7"/>
+      <c r="F23" s="8"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24">
-      <c r="F24" s="7"/>
-      <c r="H24" s="7"/>
+      <c r="F24" s="8"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25">
-      <c r="F25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="F25" s="8"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26">
-      <c r="F26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="F26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27">
-      <c r="F27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="F27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28">
-      <c r="F28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="F28" s="8"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29">
-      <c r="F29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="8"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30">
-      <c r="F30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="F30" s="8"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31">
-      <c r="F31" s="7"/>
-      <c r="H31" s="7"/>
+      <c r="F31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32">
-      <c r="F32" s="7"/>
-      <c r="H32" s="7"/>
+      <c r="F32" s="8"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33">
-      <c r="F33" s="7"/>
-      <c r="H33" s="7"/>
+      <c r="F33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
     <row r="34">
-      <c r="F34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="F34" s="8"/>
+      <c r="H34" s="8"/>
     </row>
     <row r="35">
-      <c r="F35" s="7"/>
-      <c r="H35" s="7"/>
+      <c r="F35" s="8"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36">
-      <c r="F36" s="7"/>
-      <c r="H36" s="7"/>
+      <c r="F36" s="8"/>
+      <c r="H36" s="8"/>
     </row>
     <row r="37">
-      <c r="F37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="F37" s="8"/>
+      <c r="H37" s="8"/>
     </row>
     <row r="38">
-      <c r="F38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="F38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39">
-      <c r="F39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="F39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40">
-      <c r="F40" s="7"/>
-      <c r="H40" s="7"/>
+      <c r="F40" s="8"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41">
-      <c r="F41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="F41" s="8"/>
+      <c r="H41" s="8"/>
     </row>
     <row r="42">
-      <c r="F42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="F42" s="8"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43">
-      <c r="F43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="F43" s="8"/>
+      <c r="H43" s="8"/>
     </row>
     <row r="44">
-      <c r="F44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="F44" s="8"/>
+      <c r="H44" s="8"/>
     </row>
     <row r="45">
-      <c r="F45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="F45" s="8"/>
+      <c r="H45" s="8"/>
     </row>
     <row r="46">
-      <c r="F46" s="7"/>
-      <c r="H46" s="7"/>
+      <c r="F46" s="8"/>
+      <c r="H46" s="8"/>
     </row>
     <row r="47">
-      <c r="F47" s="7"/>
-      <c r="H47" s="7"/>
+      <c r="F47" s="8"/>
+      <c r="H47" s="8"/>
     </row>
     <row r="48">
-      <c r="F48" s="7"/>
-      <c r="H48" s="7"/>
+      <c r="F48" s="8"/>
+      <c r="H48" s="8"/>
     </row>
     <row r="49">
-      <c r="F49" s="7"/>
-      <c r="H49" s="7"/>
+      <c r="F49" s="8"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50">
-      <c r="F50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="F50" s="8"/>
+      <c r="H50" s="8"/>
     </row>
     <row r="51">
-      <c r="F51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="F51" s="8"/>
+      <c r="H51" s="8"/>
     </row>
     <row r="52">
-      <c r="F52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="F52" s="8"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53">
-      <c r="F53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="F53" s="8"/>
+      <c r="H53" s="8"/>
     </row>
     <row r="54">
-      <c r="F54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="F54" s="8"/>
+      <c r="H54" s="8"/>
     </row>
     <row r="55">
-      <c r="F55" s="7"/>
-      <c r="H55" s="7"/>
+      <c r="F55" s="8"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56">
-      <c r="F56" s="7"/>
-      <c r="H56" s="7"/>
+      <c r="F56" s="8"/>
+      <c r="H56" s="8"/>
     </row>
     <row r="57">
-      <c r="F57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="F57" s="8"/>
+      <c r="H57" s="8"/>
     </row>
     <row r="58">
-      <c r="F58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="F58" s="8"/>
+      <c r="H58" s="8"/>
     </row>
     <row r="59">
-      <c r="F59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="F59" s="8"/>
+      <c r="H59" s="8"/>
     </row>
     <row r="60">
-      <c r="F60" s="7"/>
-      <c r="H60" s="7"/>
+      <c r="F60" s="8"/>
+      <c r="H60" s="8"/>
     </row>
     <row r="61">
-      <c r="F61" s="7"/>
-      <c r="H61" s="7"/>
+      <c r="F61" s="8"/>
+      <c r="H61" s="8"/>
     </row>
     <row r="62">
-      <c r="F62" s="7"/>
-      <c r="H62" s="7"/>
+      <c r="F62" s="8"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63">
-      <c r="F63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="F63" s="8"/>
+      <c r="H63" s="8"/>
     </row>
     <row r="64">
-      <c r="F64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="F64" s="8"/>
+      <c r="H64" s="8"/>
     </row>
     <row r="65">
-      <c r="F65" s="7"/>
-      <c r="H65" s="7"/>
+      <c r="F65" s="8"/>
+      <c r="H65" s="8"/>
     </row>
     <row r="66">
-      <c r="F66" s="7"/>
-      <c r="H66" s="7"/>
+      <c r="F66" s="8"/>
+      <c r="H66" s="8"/>
     </row>
     <row r="67">
-      <c r="F67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="F67" s="8"/>
+      <c r="H67" s="8"/>
     </row>
     <row r="68">
-      <c r="F68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="F68" s="8"/>
+      <c r="H68" s="8"/>
     </row>
     <row r="69">
-      <c r="F69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="F69" s="8"/>
+      <c r="H69" s="8"/>
     </row>
     <row r="70">
-      <c r="F70" s="7"/>
-      <c r="H70" s="7"/>
+      <c r="F70" s="8"/>
+      <c r="H70" s="8"/>
     </row>
     <row r="71">
-      <c r="F71" s="7"/>
-      <c r="H71" s="7"/>
+      <c r="F71" s="8"/>
+      <c r="H71" s="8"/>
     </row>
     <row r="72">
-      <c r="F72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="F72" s="8"/>
+      <c r="H72" s="8"/>
     </row>
     <row r="73">
-      <c r="F73" s="7"/>
-      <c r="H73" s="7"/>
+      <c r="F73" s="8"/>
+      <c r="H73" s="8"/>
     </row>
     <row r="74">
-      <c r="F74" s="7"/>
-      <c r="H74" s="7"/>
+      <c r="F74" s="8"/>
+      <c r="H74" s="8"/>
     </row>
     <row r="75">
-      <c r="F75" s="7"/>
-      <c r="H75" s="7"/>
+      <c r="F75" s="8"/>
+      <c r="H75" s="8"/>
     </row>
     <row r="76">
-      <c r="F76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="F76" s="8"/>
+      <c r="H76" s="8"/>
     </row>
     <row r="77">
-      <c r="F77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="F77" s="8"/>
+      <c r="H77" s="8"/>
     </row>
     <row r="78">
-      <c r="F78" s="7"/>
-      <c r="H78" s="7"/>
+      <c r="F78" s="8"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79">
-      <c r="F79" s="7"/>
-      <c r="H79" s="7"/>
+      <c r="F79" s="8"/>
+      <c r="H79" s="8"/>
     </row>
     <row r="80">
-      <c r="F80" s="7"/>
-      <c r="H80" s="7"/>
+      <c r="F80" s="8"/>
+      <c r="H80" s="8"/>
     </row>
     <row r="81">
-      <c r="F81" s="7"/>
-      <c r="H81" s="7"/>
+      <c r="F81" s="8"/>
+      <c r="H81" s="8"/>
     </row>
     <row r="82">
-      <c r="F82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="H82" s="8"/>
     </row>
     <row r="83">
-      <c r="F83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="H83" s="8"/>
     </row>
     <row r="84">
-      <c r="F84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="H84" s="8"/>
     </row>
     <row r="85">
-      <c r="F85" s="7"/>
-      <c r="H85" s="7"/>
+      <c r="F85" s="8"/>
+      <c r="H85" s="8"/>
     </row>
     <row r="86">
-      <c r="F86" s="7"/>
-      <c r="H86" s="7"/>
+      <c r="F86" s="8"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87">
-      <c r="F87" s="7"/>
-      <c r="H87" s="7"/>
+      <c r="F87" s="8"/>
+      <c r="H87" s="8"/>
     </row>
     <row r="88">
-      <c r="F88" s="7"/>
-      <c r="H88" s="7"/>
+      <c r="F88" s="8"/>
+      <c r="H88" s="8"/>
     </row>
     <row r="89">
-      <c r="F89" s="7"/>
-      <c r="H89" s="7"/>
+      <c r="F89" s="8"/>
+      <c r="H89" s="8"/>
     </row>
     <row r="90">
-      <c r="F90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="F90" s="8"/>
+      <c r="H90" s="8"/>
     </row>
     <row r="91">
-      <c r="F91" s="7"/>
-      <c r="H91" s="7"/>
+      <c r="F91" s="8"/>
+      <c r="H91" s="8"/>
     </row>
     <row r="92">
-      <c r="F92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="F92" s="8"/>
+      <c r="H92" s="8"/>
     </row>
     <row r="93">
-      <c r="F93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="F93" s="8"/>
+      <c r="H93" s="8"/>
     </row>
     <row r="94">
-      <c r="F94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="F94" s="8"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95">
-      <c r="F95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="F95" s="8"/>
+      <c r="H95" s="8"/>
     </row>
     <row r="96">
-      <c r="F96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="F96" s="8"/>
+      <c r="H96" s="8"/>
     </row>
     <row r="97">
-      <c r="F97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="F97" s="8"/>
+      <c r="H97" s="8"/>
     </row>
     <row r="98">
-      <c r="F98" s="7"/>
-      <c r="H98" s="7"/>
+      <c r="F98" s="8"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99">
-      <c r="F99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="F99" s="8"/>
+      <c r="H99" s="8"/>
     </row>
     <row r="100">
-      <c r="F100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="F100" s="8"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101">
-      <c r="F101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="F101" s="8"/>
+      <c r="H101" s="8"/>
     </row>
     <row r="102">
-      <c r="F102" s="7"/>
-      <c r="H102" s="7"/>
+      <c r="F102" s="8"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103">
-      <c r="F103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="F103" s="8"/>
+      <c r="H103" s="8"/>
     </row>
     <row r="104">
-      <c r="F104" s="7"/>
-      <c r="H104" s="7"/>
+      <c r="F104" s="8"/>
+      <c r="H104" s="8"/>
     </row>
     <row r="105">
-      <c r="F105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="F105" s="8"/>
+      <c r="H105" s="8"/>
     </row>
     <row r="106">
-      <c r="F106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="F106" s="8"/>
+      <c r="H106" s="8"/>
     </row>
     <row r="107">
-      <c r="F107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="F107" s="8"/>
+      <c r="H107" s="8"/>
     </row>
     <row r="108">
-      <c r="F108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="F108" s="8"/>
+      <c r="H108" s="8"/>
     </row>
     <row r="109">
-      <c r="F109" s="7"/>
-      <c r="H109" s="7"/>
+      <c r="F109" s="8"/>
+      <c r="H109" s="8"/>
     </row>
     <row r="110">
-      <c r="F110" s="7"/>
-      <c r="H110" s="7"/>
+      <c r="F110" s="8"/>
+      <c r="H110" s="8"/>
     </row>
     <row r="111">
-      <c r="F111" s="7"/>
-      <c r="H111" s="7"/>
+      <c r="F111" s="8"/>
+      <c r="H111" s="8"/>
     </row>
     <row r="112">
-      <c r="F112" s="7"/>
-      <c r="H112" s="7"/>
+      <c r="F112" s="8"/>
+      <c r="H112" s="8"/>
     </row>
     <row r="113">
-      <c r="F113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="F113" s="8"/>
+      <c r="H113" s="8"/>
     </row>
     <row r="114">
-      <c r="F114" s="7"/>
-      <c r="H114" s="7"/>
+      <c r="F114" s="8"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115">
-      <c r="F115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="F115" s="8"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116">
-      <c r="F116" s="7"/>
-      <c r="H116" s="7"/>
+      <c r="F116" s="8"/>
+      <c r="H116" s="8"/>
     </row>
     <row r="117">
-      <c r="F117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="F117" s="8"/>
+      <c r="H117" s="8"/>
     </row>
     <row r="118">
-      <c r="F118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="F118" s="8"/>
+      <c r="H118" s="8"/>
     </row>
     <row r="119">
-      <c r="F119" s="7"/>
-      <c r="H119" s="7"/>
+      <c r="F119" s="8"/>
+      <c r="H119" s="8"/>
     </row>
     <row r="120">
-      <c r="F120" s="7"/>
-      <c r="H120" s="7"/>
+      <c r="F120" s="8"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121">
-      <c r="F121" s="7"/>
-      <c r="H121" s="7"/>
+      <c r="F121" s="8"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122">
-      <c r="F122" s="7"/>
-      <c r="H122" s="7"/>
+      <c r="F122" s="8"/>
+      <c r="H122" s="8"/>
     </row>
     <row r="123">
-      <c r="F123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="F123" s="8"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124">
-      <c r="F124" s="7"/>
-      <c r="H124" s="7"/>
+      <c r="F124" s="8"/>
+      <c r="H124" s="8"/>
     </row>
     <row r="125">
-      <c r="F125" s="7"/>
-      <c r="H125" s="7"/>
+      <c r="F125" s="8"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126">
-      <c r="F126" s="7"/>
-      <c r="H126" s="7"/>
+      <c r="F126" s="8"/>
+      <c r="H126" s="8"/>
     </row>
     <row r="127">
-      <c r="F127" s="7"/>
-      <c r="H127" s="7"/>
+      <c r="F127" s="8"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128">
-      <c r="F128" s="7"/>
-      <c r="H128" s="7"/>
+      <c r="F128" s="8"/>
+      <c r="H128" s="8"/>
     </row>
     <row r="129">
-      <c r="F129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="F129" s="8"/>
+      <c r="H129" s="8"/>
     </row>
     <row r="130">
-      <c r="F130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="F130" s="8"/>
+      <c r="H130" s="8"/>
     </row>
     <row r="131">
-      <c r="F131" s="7"/>
-      <c r="H131" s="7"/>
+      <c r="F131" s="8"/>
+      <c r="H131" s="8"/>
     </row>
     <row r="132">
-      <c r="F132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="F132" s="8"/>
+      <c r="H132" s="8"/>
     </row>
     <row r="133">
-      <c r="F133" s="7"/>
-      <c r="H133" s="7"/>
+      <c r="F133" s="8"/>
+      <c r="H133" s="8"/>
     </row>
     <row r="134">
-      <c r="F134" s="7"/>
-      <c r="H134" s="7"/>
+      <c r="F134" s="8"/>
+      <c r="H134" s="8"/>
     </row>
     <row r="135">
-      <c r="F135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="F135" s="8"/>
+      <c r="H135" s="8"/>
     </row>
     <row r="136">
-      <c r="F136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="F136" s="8"/>
+      <c r="H136" s="8"/>
     </row>
     <row r="137">
-      <c r="F137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="F137" s="8"/>
+      <c r="H137" s="8"/>
     </row>
     <row r="138">
-      <c r="F138" s="7"/>
-      <c r="H138" s="7"/>
+      <c r="F138" s="8"/>
+      <c r="H138" s="8"/>
     </row>
     <row r="139">
-      <c r="F139" s="7"/>
-      <c r="H139" s="7"/>
+      <c r="F139" s="8"/>
+      <c r="H139" s="8"/>
     </row>
     <row r="140">
-      <c r="F140" s="7"/>
-      <c r="H140" s="7"/>
+      <c r="F140" s="8"/>
+      <c r="H140" s="8"/>
     </row>
     <row r="141">
-      <c r="F141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="F141" s="8"/>
+      <c r="H141" s="8"/>
     </row>
     <row r="142">
-      <c r="F142" s="7"/>
-      <c r="H142" s="7"/>
+      <c r="F142" s="8"/>
+      <c r="H142" s="8"/>
     </row>
     <row r="143">
-      <c r="F143" s="7"/>
-      <c r="H143" s="7"/>
+      <c r="F143" s="8"/>
+      <c r="H143" s="8"/>
     </row>
     <row r="144">
-      <c r="F144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="F144" s="8"/>
+      <c r="H144" s="8"/>
     </row>
     <row r="145">
-      <c r="F145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="F145" s="8"/>
+      <c r="H145" s="8"/>
     </row>
     <row r="146">
-      <c r="F146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="F146" s="8"/>
+      <c r="H146" s="8"/>
     </row>
     <row r="147">
-      <c r="F147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="F147" s="8"/>
+      <c r="H147" s="8"/>
     </row>
     <row r="148">
-      <c r="F148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="F148" s="8"/>
+      <c r="H148" s="8"/>
     </row>
     <row r="149">
-      <c r="F149" s="7"/>
-      <c r="H149" s="7"/>
+      <c r="F149" s="8"/>
+      <c r="H149" s="8"/>
     </row>
     <row r="150">
-      <c r="F150" s="7"/>
-      <c r="H150" s="7"/>
+      <c r="F150" s="8"/>
+      <c r="H150" s="8"/>
     </row>
     <row r="151">
-      <c r="F151" s="7"/>
-      <c r="H151" s="7"/>
+      <c r="F151" s="8"/>
+      <c r="H151" s="8"/>
     </row>
     <row r="152">
-      <c r="F152" s="7"/>
-      <c r="H152" s="7"/>
+      <c r="F152" s="8"/>
+      <c r="H152" s="8"/>
     </row>
     <row r="153">
-      <c r="F153" s="7"/>
-      <c r="H153" s="7"/>
+      <c r="F153" s="8"/>
+      <c r="H153" s="8"/>
     </row>
     <row r="154">
-      <c r="F154" s="7"/>
-      <c r="H154" s="7"/>
+      <c r="F154" s="8"/>
+      <c r="H154" s="8"/>
     </row>
     <row r="155">
-      <c r="F155" s="7"/>
-      <c r="H155" s="7"/>
+      <c r="F155" s="8"/>
+      <c r="H155" s="8"/>
     </row>
     <row r="156">
-      <c r="F156" s="7"/>
-      <c r="H156" s="7"/>
+      <c r="F156" s="8"/>
+      <c r="H156" s="8"/>
     </row>
     <row r="157">
-      <c r="F157" s="7"/>
-      <c r="H157" s="7"/>
+      <c r="F157" s="8"/>
+      <c r="H157" s="8"/>
     </row>
     <row r="158">
-      <c r="F158" s="7"/>
-      <c r="H158" s="7"/>
+      <c r="F158" s="8"/>
+      <c r="H158" s="8"/>
     </row>
     <row r="159">
-      <c r="F159" s="7"/>
-      <c r="H159" s="7"/>
+      <c r="F159" s="8"/>
+      <c r="H159" s="8"/>
     </row>
     <row r="160">
-      <c r="F160" s="7"/>
-      <c r="H160" s="7"/>
+      <c r="F160" s="8"/>
+      <c r="H160" s="8"/>
     </row>
     <row r="161">
-      <c r="F161" s="7"/>
-      <c r="H161" s="7"/>
+      <c r="F161" s="8"/>
+      <c r="H161" s="8"/>
     </row>
     <row r="162">
-      <c r="F162" s="7"/>
-      <c r="H162" s="7"/>
+      <c r="F162" s="8"/>
+      <c r="H162" s="8"/>
     </row>
     <row r="163">
-      <c r="F163" s="7"/>
-      <c r="H163" s="7"/>
+      <c r="F163" s="8"/>
+      <c r="H163" s="8"/>
     </row>
     <row r="164">
-      <c r="F164" s="7"/>
-      <c r="H164" s="7"/>
+      <c r="F164" s="8"/>
+      <c r="H164" s="8"/>
     </row>
     <row r="165">
-      <c r="F165" s="7"/>
-      <c r="H165" s="7"/>
+      <c r="F165" s="8"/>
+      <c r="H165" s="8"/>
     </row>
     <row r="166">
-      <c r="F166" s="7"/>
-      <c r="H166" s="7"/>
+      <c r="F166" s="8"/>
+      <c r="H166" s="8"/>
     </row>
     <row r="167">
-      <c r="F167" s="7"/>
-      <c r="H167" s="7"/>
+      <c r="F167" s="8"/>
+      <c r="H167" s="8"/>
     </row>
     <row r="168">
-      <c r="F168" s="7"/>
-      <c r="H168" s="7"/>
+      <c r="F168" s="8"/>
+      <c r="H168" s="8"/>
     </row>
     <row r="169">
-      <c r="F169" s="7"/>
-      <c r="H169" s="7"/>
+      <c r="F169" s="8"/>
+      <c r="H169" s="8"/>
     </row>
     <row r="170">
-      <c r="F170" s="7"/>
-      <c r="H170" s="7"/>
+      <c r="F170" s="8"/>
+      <c r="H170" s="8"/>
     </row>
     <row r="171">
-      <c r="F171" s="7"/>
-      <c r="H171" s="7"/>
+      <c r="F171" s="8"/>
+      <c r="H171" s="8"/>
     </row>
     <row r="172">
-      <c r="F172" s="7"/>
-      <c r="H172" s="7"/>
+      <c r="F172" s="8"/>
+      <c r="H172" s="8"/>
     </row>
     <row r="173">
-      <c r="F173" s="7"/>
-      <c r="H173" s="7"/>
+      <c r="F173" s="8"/>
+      <c r="H173" s="8"/>
     </row>
     <row r="174">
-      <c r="F174" s="7"/>
-      <c r="H174" s="7"/>
+      <c r="F174" s="8"/>
+      <c r="H174" s="8"/>
     </row>
     <row r="175">
-      <c r="F175" s="7"/>
-      <c r="H175" s="7"/>
+      <c r="F175" s="8"/>
+      <c r="H175" s="8"/>
     </row>
     <row r="176">
-      <c r="F176" s="7"/>
-      <c r="H176" s="7"/>
+      <c r="F176" s="8"/>
+      <c r="H176" s="8"/>
     </row>
     <row r="177">
-      <c r="F177" s="7"/>
-      <c r="H177" s="7"/>
+      <c r="F177" s="8"/>
+      <c r="H177" s="8"/>
     </row>
     <row r="178">
-      <c r="F178" s="7"/>
-      <c r="H178" s="7"/>
+      <c r="F178" s="8"/>
+      <c r="H178" s="8"/>
     </row>
     <row r="179">
-      <c r="F179" s="7"/>
-      <c r="H179" s="7"/>
+      <c r="F179" s="8"/>
+      <c r="H179" s="8"/>
     </row>
     <row r="180">
-      <c r="F180" s="7"/>
-      <c r="H180" s="7"/>
+      <c r="F180" s="8"/>
+      <c r="H180" s="8"/>
     </row>
     <row r="181">
-      <c r="F181" s="7"/>
-      <c r="H181" s="7"/>
+      <c r="F181" s="8"/>
+      <c r="H181" s="8"/>
     </row>
     <row r="182">
-      <c r="F182" s="7"/>
-      <c r="H182" s="7"/>
+      <c r="F182" s="8"/>
+      <c r="H182" s="8"/>
     </row>
     <row r="183">
-      <c r="F183" s="7"/>
-      <c r="H183" s="7"/>
+      <c r="F183" s="8"/>
+      <c r="H183" s="8"/>
     </row>
     <row r="184">
-      <c r="F184" s="7"/>
-      <c r="H184" s="7"/>
+      <c r="F184" s="8"/>
+      <c r="H184" s="8"/>
     </row>
     <row r="185">
-      <c r="F185" s="7"/>
-      <c r="H185" s="7"/>
+      <c r="F185" s="8"/>
+      <c r="H185" s="8"/>
     </row>
     <row r="186">
-      <c r="F186" s="7"/>
-      <c r="H186" s="7"/>
+      <c r="F186" s="8"/>
+      <c r="H186" s="8"/>
     </row>
     <row r="187">
-      <c r="F187" s="7"/>
-      <c r="H187" s="7"/>
+      <c r="F187" s="8"/>
+      <c r="H187" s="8"/>
     </row>
     <row r="188">
-      <c r="F188" s="7"/>
-      <c r="H188" s="7"/>
+      <c r="F188" s="8"/>
+      <c r="H188" s="8"/>
     </row>
     <row r="189">
-      <c r="F189" s="7"/>
-      <c r="H189" s="7"/>
+      <c r="F189" s="8"/>
+      <c r="H189" s="8"/>
     </row>
     <row r="190">
-      <c r="F190" s="7"/>
-      <c r="H190" s="7"/>
+      <c r="F190" s="8"/>
+      <c r="H190" s="8"/>
     </row>
     <row r="191">
-      <c r="F191" s="7"/>
-      <c r="H191" s="7"/>
+      <c r="F191" s="8"/>
+      <c r="H191" s="8"/>
     </row>
     <row r="192">
-      <c r="F192" s="7"/>
-      <c r="H192" s="7"/>
+      <c r="F192" s="8"/>
+      <c r="H192" s="8"/>
     </row>
     <row r="193">
-      <c r="F193" s="7"/>
-      <c r="H193" s="7"/>
+      <c r="F193" s="8"/>
+      <c r="H193" s="8"/>
     </row>
     <row r="194">
-      <c r="F194" s="7"/>
-      <c r="H194" s="7"/>
+      <c r="F194" s="8"/>
+      <c r="H194" s="8"/>
     </row>
     <row r="195">
-      <c r="F195" s="7"/>
-      <c r="H195" s="7"/>
+      <c r="F195" s="8"/>
+      <c r="H195" s="8"/>
     </row>
     <row r="196">
-      <c r="F196" s="7"/>
-      <c r="H196" s="7"/>
+      <c r="F196" s="8"/>
+      <c r="H196" s="8"/>
     </row>
     <row r="197">
-      <c r="F197" s="7"/>
-      <c r="H197" s="7"/>
+      <c r="F197" s="8"/>
+      <c r="H197" s="8"/>
     </row>
     <row r="198">
-      <c r="F198" s="7"/>
-      <c r="H198" s="7"/>
+      <c r="F198" s="8"/>
+      <c r="H198" s="8"/>
     </row>
     <row r="199">
-      <c r="F199" s="7"/>
-      <c r="H199" s="7"/>
+      <c r="F199" s="8"/>
+      <c r="H199" s="8"/>
     </row>
     <row r="200">
-      <c r="F200" s="7"/>
-      <c r="H200" s="7"/>
+      <c r="F200" s="8"/>
+      <c r="H200" s="8"/>
     </row>
     <row r="201">
-      <c r="F201" s="7"/>
-      <c r="H201" s="7"/>
+      <c r="F201" s="8"/>
+      <c r="H201" s="8"/>
     </row>
     <row r="202">
-      <c r="F202" s="7"/>
-      <c r="H202" s="7"/>
+      <c r="F202" s="8"/>
+      <c r="H202" s="8"/>
     </row>
     <row r="203">
-      <c r="F203" s="7"/>
-      <c r="H203" s="7"/>
+      <c r="F203" s="8"/>
+      <c r="H203" s="8"/>
     </row>
     <row r="204">
-      <c r="F204" s="7"/>
-      <c r="H204" s="7"/>
+      <c r="F204" s="8"/>
+      <c r="H204" s="8"/>
     </row>
     <row r="205">
-      <c r="F205" s="7"/>
-      <c r="H205" s="7"/>
+      <c r="F205" s="8"/>
+      <c r="H205" s="8"/>
     </row>
     <row r="206">
-      <c r="F206" s="7"/>
-      <c r="H206" s="7"/>
+      <c r="F206" s="8"/>
+      <c r="H206" s="8"/>
     </row>
     <row r="207">
-      <c r="F207" s="7"/>
-      <c r="H207" s="7"/>
+      <c r="F207" s="8"/>
+      <c r="H207" s="8"/>
     </row>
     <row r="208">
-      <c r="F208" s="7"/>
-      <c r="H208" s="7"/>
+      <c r="F208" s="8"/>
+      <c r="H208" s="8"/>
     </row>
     <row r="209">
-      <c r="F209" s="7"/>
-      <c r="H209" s="7"/>
+      <c r="F209" s="8"/>
+      <c r="H209" s="8"/>
     </row>
     <row r="210">
-      <c r="F210" s="7"/>
-      <c r="H210" s="7"/>
+      <c r="F210" s="8"/>
+      <c r="H210" s="8"/>
     </row>
     <row r="211">
-      <c r="F211" s="7"/>
-      <c r="H211" s="7"/>
+      <c r="F211" s="8"/>
+      <c r="H211" s="8"/>
     </row>
     <row r="212">
-      <c r="F212" s="7"/>
-      <c r="H212" s="7"/>
+      <c r="F212" s="8"/>
+      <c r="H212" s="8"/>
     </row>
     <row r="213">
-      <c r="F213" s="7"/>
-      <c r="H213" s="7"/>
+      <c r="F213" s="8"/>
+      <c r="H213" s="8"/>
     </row>
     <row r="214">
-      <c r="F214" s="7"/>
-      <c r="H214" s="7"/>
+      <c r="F214" s="8"/>
+      <c r="H214" s="8"/>
     </row>
     <row r="215">
-      <c r="F215" s="7"/>
-      <c r="H215" s="7"/>
+      <c r="F215" s="8"/>
+      <c r="H215" s="8"/>
     </row>
     <row r="216">
-      <c r="F216" s="7"/>
-      <c r="H216" s="7"/>
+      <c r="F216" s="8"/>
+      <c r="H216" s="8"/>
     </row>
     <row r="217">
-      <c r="F217" s="7"/>
-      <c r="H217" s="7"/>
+      <c r="F217" s="8"/>
+      <c r="H217" s="8"/>
     </row>
     <row r="218">
-      <c r="F218" s="7"/>
-      <c r="H218" s="7"/>
+      <c r="F218" s="8"/>
+      <c r="H218" s="8"/>
     </row>
     <row r="219">
-      <c r="F219" s="7"/>
-      <c r="H219" s="7"/>
+      <c r="F219" s="8"/>
+      <c r="H219" s="8"/>
     </row>
     <row r="220">
-      <c r="F220" s="7"/>
-      <c r="H220" s="7"/>
+      <c r="F220" s="8"/>
+      <c r="H220" s="8"/>
     </row>
     <row r="221">
-      <c r="F221" s="7"/>
-      <c r="H221" s="7"/>
+      <c r="F221" s="8"/>
+      <c r="H221" s="8"/>
     </row>
     <row r="222">
-      <c r="F222" s="7"/>
-      <c r="H222" s="7"/>
+      <c r="F222" s="8"/>
+      <c r="H222" s="8"/>
     </row>
     <row r="223">
-      <c r="F223" s="7"/>
-      <c r="H223" s="7"/>
+      <c r="F223" s="8"/>
+      <c r="H223" s="8"/>
     </row>
     <row r="224">
-      <c r="F224" s="7"/>
-      <c r="H224" s="7"/>
+      <c r="F224" s="8"/>
+      <c r="H224" s="8"/>
     </row>
     <row r="225">
-      <c r="F225" s="7"/>
-      <c r="H225" s="7"/>
+      <c r="F225" s="8"/>
+      <c r="H225" s="8"/>
     </row>
     <row r="226">
-      <c r="F226" s="7"/>
-      <c r="H226" s="7"/>
+      <c r="F226" s="8"/>
+      <c r="H226" s="8"/>
     </row>
     <row r="227">
-      <c r="F227" s="7"/>
-      <c r="H227" s="7"/>
+      <c r="F227" s="8"/>
+      <c r="H227" s="8"/>
     </row>
     <row r="228">
-      <c r="F228" s="7"/>
-      <c r="H228" s="7"/>
+      <c r="F228" s="8"/>
+      <c r="H228" s="8"/>
     </row>
     <row r="229">
-      <c r="F229" s="7"/>
-      <c r="H229" s="7"/>
+      <c r="F229" s="8"/>
+      <c r="H229" s="8"/>
     </row>
     <row r="230">
-      <c r="F230" s="7"/>
-      <c r="H230" s="7"/>
+      <c r="F230" s="8"/>
+      <c r="H230" s="8"/>
     </row>
     <row r="231">
-      <c r="F231" s="7"/>
-      <c r="H231" s="7"/>
+      <c r="F231" s="8"/>
+      <c r="H231" s="8"/>
     </row>
     <row r="232">
-      <c r="F232" s="7"/>
-      <c r="H232" s="7"/>
+      <c r="F232" s="8"/>
+      <c r="H232" s="8"/>
     </row>
     <row r="233">
-      <c r="F233" s="7"/>
-      <c r="H233" s="7"/>
+      <c r="F233" s="8"/>
+      <c r="H233" s="8"/>
     </row>
     <row r="234">
-      <c r="F234" s="7"/>
-      <c r="H234" s="7"/>
+      <c r="F234" s="8"/>
+      <c r="H234" s="8"/>
     </row>
     <row r="235">
-      <c r="F235" s="7"/>
-      <c r="H235" s="7"/>
+      <c r="F235" s="8"/>
+      <c r="H235" s="8"/>
     </row>
     <row r="236">
-      <c r="F236" s="7"/>
-      <c r="H236" s="7"/>
+      <c r="F236" s="8"/>
+      <c r="H236" s="8"/>
     </row>
     <row r="237">
-      <c r="F237" s="7"/>
-      <c r="H237" s="7"/>
+      <c r="F237" s="8"/>
+      <c r="H237" s="8"/>
     </row>
     <row r="238">
-      <c r="F238" s="7"/>
-      <c r="H238" s="7"/>
+      <c r="F238" s="8"/>
+      <c r="H238" s="8"/>
     </row>
     <row r="239">
-      <c r="F239" s="7"/>
-      <c r="H239" s="7"/>
+      <c r="F239" s="8"/>
+      <c r="H239" s="8"/>
     </row>
     <row r="240">
-      <c r="F240" s="7"/>
-      <c r="H240" s="7"/>
+      <c r="F240" s="8"/>
+      <c r="H240" s="8"/>
     </row>
     <row r="241">
-      <c r="F241" s="7"/>
-      <c r="H241" s="7"/>
+      <c r="F241" s="8"/>
+      <c r="H241" s="8"/>
     </row>
     <row r="242">
-      <c r="F242" s="7"/>
-      <c r="H242" s="7"/>
+      <c r="F242" s="8"/>
+      <c r="H242" s="8"/>
     </row>
     <row r="243">
-      <c r="F243" s="7"/>
-      <c r="H243" s="7"/>
+      <c r="F243" s="8"/>
+      <c r="H243" s="8"/>
     </row>
     <row r="244">
-      <c r="F244" s="7"/>
-      <c r="H244" s="7"/>
+      <c r="F244" s="8"/>
+      <c r="H244" s="8"/>
     </row>
     <row r="245">
-      <c r="F245" s="7"/>
-      <c r="H245" s="7"/>
+      <c r="F245" s="8"/>
+      <c r="H245" s="8"/>
     </row>
     <row r="246">
-      <c r="F246" s="7"/>
-      <c r="H246" s="7"/>
+      <c r="F246" s="8"/>
+      <c r="H246" s="8"/>
     </row>
     <row r="247">
-      <c r="F247" s="7"/>
-      <c r="H247" s="7"/>
+      <c r="F247" s="8"/>
+      <c r="H247" s="8"/>
     </row>
     <row r="248">
-      <c r="F248" s="7"/>
-      <c r="H248" s="7"/>
+      <c r="F248" s="8"/>
+      <c r="H248" s="8"/>
     </row>
     <row r="249">
-      <c r="F249" s="7"/>
-      <c r="H249" s="7"/>
+      <c r="F249" s="8"/>
+      <c r="H249" s="8"/>
     </row>
     <row r="250">
-      <c r="F250" s="7"/>
-      <c r="H250" s="7"/>
+      <c r="F250" s="8"/>
+      <c r="H250" s="8"/>
     </row>
     <row r="251">
-      <c r="F251" s="7"/>
-      <c r="H251" s="7"/>
+      <c r="F251" s="8"/>
+      <c r="H251" s="8"/>
     </row>
     <row r="252">
-      <c r="F252" s="7"/>
-      <c r="H252" s="7"/>
+      <c r="F252" s="8"/>
+      <c r="H252" s="8"/>
     </row>
     <row r="253">
-      <c r="F253" s="7"/>
-      <c r="H253" s="7"/>
+      <c r="F253" s="8"/>
+      <c r="H253" s="8"/>
     </row>
     <row r="254">
-      <c r="F254" s="7"/>
-      <c r="H254" s="7"/>
+      <c r="F254" s="8"/>
+      <c r="H254" s="8"/>
     </row>
     <row r="255">
-      <c r="F255" s="7"/>
-      <c r="H255" s="7"/>
+      <c r="F255" s="8"/>
+      <c r="H255" s="8"/>
     </row>
     <row r="256">
-      <c r="F256" s="7"/>
-      <c r="H256" s="7"/>
+      <c r="F256" s="8"/>
+      <c r="H256" s="8"/>
     </row>
     <row r="257">
-      <c r="F257" s="7"/>
-      <c r="H257" s="7"/>
+      <c r="F257" s="8"/>
+      <c r="H257" s="8"/>
     </row>
     <row r="258">
-      <c r="F258" s="7"/>
-      <c r="H258" s="7"/>
+      <c r="F258" s="8"/>
+      <c r="H258" s="8"/>
     </row>
     <row r="259">
-      <c r="F259" s="7"/>
-      <c r="H259" s="7"/>
+      <c r="F259" s="8"/>
+      <c r="H259" s="8"/>
     </row>
     <row r="260">
-      <c r="F260" s="7"/>
-      <c r="H260" s="7"/>
+      <c r="F260" s="8"/>
+      <c r="H260" s="8"/>
     </row>
     <row r="261">
-      <c r="F261" s="7"/>
-      <c r="H261" s="7"/>
+      <c r="F261" s="8"/>
+      <c r="H261" s="8"/>
     </row>
     <row r="262">
-      <c r="F262" s="7"/>
-      <c r="H262" s="7"/>
+      <c r="F262" s="8"/>
+      <c r="H262" s="8"/>
     </row>
     <row r="263">
-      <c r="F263" s="7"/>
-      <c r="H263" s="7"/>
+      <c r="F263" s="8"/>
+      <c r="H263" s="8"/>
     </row>
     <row r="264">
-      <c r="F264" s="7"/>
-      <c r="H264" s="7"/>
+      <c r="F264" s="8"/>
+      <c r="H264" s="8"/>
     </row>
     <row r="265">
-      <c r="F265" s="7"/>
-      <c r="H265" s="7"/>
+      <c r="F265" s="8"/>
+      <c r="H265" s="8"/>
     </row>
     <row r="266">
-      <c r="F266" s="7"/>
-      <c r="H266" s="7"/>
+      <c r="F266" s="8"/>
+      <c r="H266" s="8"/>
     </row>
     <row r="267">
-      <c r="F267" s="7"/>
-      <c r="H267" s="7"/>
+      <c r="F267" s="8"/>
+      <c r="H267" s="8"/>
     </row>
     <row r="268">
-      <c r="F268" s="7"/>
-      <c r="H268" s="7"/>
+      <c r="F268" s="8"/>
+      <c r="H268" s="8"/>
     </row>
     <row r="269">
-      <c r="F269" s="7"/>
-      <c r="H269" s="7"/>
+      <c r="F269" s="8"/>
+      <c r="H269" s="8"/>
     </row>
     <row r="270">
-      <c r="F270" s="7"/>
-      <c r="H270" s="7"/>
+      <c r="F270" s="8"/>
+      <c r="H270" s="8"/>
     </row>
     <row r="271">
-      <c r="F271" s="7"/>
-      <c r="H271" s="7"/>
+      <c r="F271" s="8"/>
+      <c r="H271" s="8"/>
     </row>
     <row r="272">
-      <c r="F272" s="7"/>
-      <c r="H272" s="7"/>
+      <c r="F272" s="8"/>
+      <c r="H272" s="8"/>
     </row>
     <row r="273">
-      <c r="F273" s="7"/>
-      <c r="H273" s="7"/>
+      <c r="F273" s="8"/>
+      <c r="H273" s="8"/>
     </row>
     <row r="274">
-      <c r="F274" s="7"/>
-      <c r="H274" s="7"/>
+      <c r="F274" s="8"/>
+      <c r="H274" s="8"/>
     </row>
     <row r="275">
-      <c r="F275" s="7"/>
-      <c r="H275" s="7"/>
+      <c r="F275" s="8"/>
+      <c r="H275" s="8"/>
     </row>
     <row r="276">
-      <c r="F276" s="7"/>
-      <c r="H276" s="7"/>
+      <c r="F276" s="8"/>
+      <c r="H276" s="8"/>
     </row>
     <row r="277">
-      <c r="F277" s="7"/>
-      <c r="H277" s="7"/>
+      <c r="F277" s="8"/>
+      <c r="H277" s="8"/>
     </row>
     <row r="278">
-      <c r="F278" s="7"/>
-      <c r="H278" s="7"/>
+      <c r="F278" s="8"/>
+      <c r="H278" s="8"/>
     </row>
     <row r="279">
-      <c r="F279" s="7"/>
-      <c r="H279" s="7"/>
+      <c r="F279" s="8"/>
+      <c r="H279" s="8"/>
     </row>
     <row r="280">
-      <c r="F280" s="7"/>
-      <c r="H280" s="7"/>
+      <c r="F280" s="8"/>
+      <c r="H280" s="8"/>
     </row>
     <row r="281">
-      <c r="F281" s="7"/>
-      <c r="H281" s="7"/>
+      <c r="F281" s="8"/>
+      <c r="H281" s="8"/>
     </row>
     <row r="282">
-      <c r="F282" s="7"/>
-      <c r="H282" s="7"/>
+      <c r="F282" s="8"/>
+      <c r="H282" s="8"/>
     </row>
     <row r="283">
-      <c r="F283" s="7"/>
-      <c r="H283" s="7"/>
+      <c r="F283" s="8"/>
+      <c r="H283" s="8"/>
     </row>
     <row r="284">
-      <c r="F284" s="7"/>
-      <c r="H284" s="7"/>
+      <c r="F284" s="8"/>
+      <c r="H284" s="8"/>
     </row>
     <row r="285">
-      <c r="F285" s="7"/>
-      <c r="H285" s="7"/>
+      <c r="F285" s="8"/>
+      <c r="H285" s="8"/>
     </row>
     <row r="286">
-      <c r="F286" s="7"/>
-      <c r="H286" s="7"/>
+      <c r="F286" s="8"/>
+      <c r="H286" s="8"/>
     </row>
     <row r="287">
-      <c r="F287" s="7"/>
-      <c r="H287" s="7"/>
+      <c r="F287" s="8"/>
+      <c r="H287" s="8"/>
     </row>
     <row r="288">
-      <c r="F288" s="7"/>
-      <c r="H288" s="7"/>
+      <c r="F288" s="8"/>
+      <c r="H288" s="8"/>
     </row>
     <row r="289">
-      <c r="F289" s="7"/>
-      <c r="H289" s="7"/>
+      <c r="F289" s="8"/>
+      <c r="H289" s="8"/>
     </row>
     <row r="290">
-      <c r="F290" s="7"/>
-      <c r="H290" s="7"/>
+      <c r="F290" s="8"/>
+      <c r="H290" s="8"/>
     </row>
     <row r="291">
-      <c r="F291" s="7"/>
-      <c r="H291" s="7"/>
+      <c r="F291" s="8"/>
+      <c r="H291" s="8"/>
     </row>
     <row r="292">
-      <c r="F292" s="7"/>
-      <c r="H292" s="7"/>
+      <c r="F292" s="8"/>
+      <c r="H292" s="8"/>
     </row>
     <row r="293">
-      <c r="F293" s="7"/>
-      <c r="H293" s="7"/>
+      <c r="F293" s="8"/>
+      <c r="H293" s="8"/>
     </row>
     <row r="294">
-      <c r="F294" s="7"/>
-      <c r="H294" s="7"/>
+      <c r="F294" s="8"/>
+      <c r="H294" s="8"/>
     </row>
     <row r="295">
-      <c r="F295" s="7"/>
-      <c r="H295" s="7"/>
+      <c r="F295" s="8"/>
+      <c r="H295" s="8"/>
     </row>
     <row r="296">
-      <c r="F296" s="7"/>
-      <c r="H296" s="7"/>
+      <c r="F296" s="8"/>
+      <c r="H296" s="8"/>
     </row>
     <row r="297">
-      <c r="F297" s="7"/>
-      <c r="H297" s="7"/>
+      <c r="F297" s="8"/>
+      <c r="H297" s="8"/>
     </row>
     <row r="298">
-      <c r="F298" s="7"/>
-      <c r="H298" s="7"/>
+      <c r="F298" s="8"/>
+      <c r="H298" s="8"/>
     </row>
     <row r="299">
-      <c r="F299" s="7"/>
-      <c r="H299" s="7"/>
+      <c r="F299" s="8"/>
+      <c r="H299" s="8"/>
     </row>
     <row r="300">
-      <c r="F300" s="7"/>
-      <c r="H300" s="7"/>
+      <c r="F300" s="8"/>
+      <c r="H300" s="8"/>
     </row>
     <row r="301">
-      <c r="F301" s="7"/>
-      <c r="H301" s="7"/>
+      <c r="F301" s="8"/>
+      <c r="H301" s="8"/>
     </row>
     <row r="302">
-      <c r="F302" s="7"/>
-      <c r="H302" s="7"/>
+      <c r="F302" s="8"/>
+      <c r="H302" s="8"/>
     </row>
     <row r="303">
-      <c r="F303" s="7"/>
-      <c r="H303" s="7"/>
+      <c r="F303" s="8"/>
+      <c r="H303" s="8"/>
     </row>
     <row r="304">
-      <c r="F304" s="7"/>
-      <c r="H304" s="7"/>
+      <c r="F304" s="8"/>
+      <c r="H304" s="8"/>
     </row>
     <row r="305">
-      <c r="F305" s="7"/>
-      <c r="H305" s="7"/>
+      <c r="F305" s="8"/>
+      <c r="H305" s="8"/>
     </row>
     <row r="306">
-      <c r="F306" s="7"/>
-      <c r="H306" s="7"/>
+      <c r="F306" s="8"/>
+      <c r="H306" s="8"/>
     </row>
     <row r="307">
-      <c r="F307" s="7"/>
-      <c r="H307" s="7"/>
+      <c r="F307" s="8"/>
+      <c r="H307" s="8"/>
     </row>
     <row r="308">
-      <c r="F308" s="7"/>
-      <c r="H308" s="7"/>
+      <c r="F308" s="8"/>
+      <c r="H308" s="8"/>
     </row>
     <row r="309">
-      <c r="F309" s="7"/>
-      <c r="H309" s="7"/>
+      <c r="F309" s="8"/>
+      <c r="H309" s="8"/>
     </row>
     <row r="310">
-      <c r="F310" s="7"/>
-      <c r="H310" s="7"/>
+      <c r="F310" s="8"/>
+      <c r="H310" s="8"/>
     </row>
     <row r="311">
-      <c r="F311" s="7"/>
-      <c r="H311" s="7"/>
+      <c r="F311" s="8"/>
+      <c r="H311" s="8"/>
     </row>
     <row r="312">
-      <c r="F312" s="7"/>
-      <c r="H312" s="7"/>
+      <c r="F312" s="8"/>
+      <c r="H312" s="8"/>
     </row>
     <row r="313">
-      <c r="F313" s="7"/>
-      <c r="H313" s="7"/>
+      <c r="F313" s="8"/>
+      <c r="H313" s="8"/>
     </row>
     <row r="314">
-      <c r="F314" s="7"/>
-      <c r="H314" s="7"/>
+      <c r="F314" s="8"/>
+      <c r="H314" s="8"/>
     </row>
     <row r="315">
-      <c r="F315" s="7"/>
-      <c r="H315" s="7"/>
+      <c r="F315" s="8"/>
+      <c r="H315" s="8"/>
     </row>
     <row r="316">
-      <c r="F316" s="7"/>
-      <c r="H316" s="7"/>
+      <c r="F316" s="8"/>
+      <c r="H316" s="8"/>
     </row>
     <row r="317">
-      <c r="F317" s="7"/>
-      <c r="H317" s="7"/>
+      <c r="F317" s="8"/>
+      <c r="H317" s="8"/>
     </row>
     <row r="318">
-      <c r="F318" s="7"/>
-      <c r="H318" s="7"/>
+      <c r="F318" s="8"/>
+      <c r="H318" s="8"/>
     </row>
     <row r="319">
-      <c r="F319" s="7"/>
-      <c r="H319" s="7"/>
+      <c r="F319" s="8"/>
+      <c r="H319" s="8"/>
     </row>
     <row r="320">
-      <c r="F320" s="7"/>
-      <c r="H320" s="7"/>
+      <c r="F320" s="8"/>
+      <c r="H320" s="8"/>
     </row>
     <row r="321">
-      <c r="F321" s="7"/>
-      <c r="H321" s="7"/>
+      <c r="F321" s="8"/>
+      <c r="H321" s="8"/>
     </row>
     <row r="322">
-      <c r="F322" s="7"/>
-      <c r="H322" s="7"/>
+      <c r="F322" s="8"/>
+      <c r="H322" s="8"/>
     </row>
     <row r="323">
-      <c r="F323" s="7"/>
-      <c r="H323" s="7"/>
+      <c r="F323" s="8"/>
+      <c r="H323" s="8"/>
     </row>
     <row r="324">
-      <c r="F324" s="7"/>
-      <c r="H324" s="7"/>
+      <c r="F324" s="8"/>
+      <c r="H324" s="8"/>
     </row>
     <row r="325">
-      <c r="F325" s="7"/>
-      <c r="H325" s="7"/>
+      <c r="F325" s="8"/>
+      <c r="H325" s="8"/>
     </row>
     <row r="326">
-      <c r="F326" s="7"/>
-      <c r="H326" s="7"/>
+      <c r="F326" s="8"/>
+      <c r="H326" s="8"/>
     </row>
     <row r="327">
-      <c r="F327" s="7"/>
-      <c r="H327" s="7"/>
+      <c r="F327" s="8"/>
+      <c r="H327" s="8"/>
     </row>
     <row r="328">
-      <c r="F328" s="7"/>
-      <c r="H328" s="7"/>
+      <c r="F328" s="8"/>
+      <c r="H328" s="8"/>
     </row>
     <row r="329">
-      <c r="F329" s="7"/>
-      <c r="H329" s="7"/>
+      <c r="F329" s="8"/>
+      <c r="H329" s="8"/>
     </row>
     <row r="330">
-      <c r="F330" s="7"/>
-      <c r="H330" s="7"/>
+      <c r="F330" s="8"/>
+      <c r="H330" s="8"/>
     </row>
     <row r="331">
-      <c r="F331" s="7"/>
-      <c r="H331" s="7"/>
+      <c r="F331" s="8"/>
+      <c r="H331" s="8"/>
     </row>
     <row r="332">
-      <c r="F332" s="7"/>
-      <c r="H332" s="7"/>
+      <c r="F332" s="8"/>
+      <c r="H332" s="8"/>
     </row>
     <row r="333">
-      <c r="F333" s="7"/>
-      <c r="H333" s="7"/>
+      <c r="F333" s="8"/>
+      <c r="H333" s="8"/>
     </row>
     <row r="334">
-      <c r="F334" s="7"/>
-      <c r="H334" s="7"/>
+      <c r="F334" s="8"/>
+      <c r="H334" s="8"/>
     </row>
     <row r="335">
-      <c r="F335" s="7"/>
-      <c r="H335" s="7"/>
+      <c r="F335" s="8"/>
+      <c r="H335" s="8"/>
     </row>
     <row r="336">
-      <c r="F336" s="7"/>
-      <c r="H336" s="7"/>
+      <c r="F336" s="8"/>
+      <c r="H336" s="8"/>
     </row>
     <row r="337">
-      <c r="F337" s="7"/>
-      <c r="H337" s="7"/>
+      <c r="F337" s="8"/>
+      <c r="H337" s="8"/>
     </row>
     <row r="338">
-      <c r="F338" s="7"/>
-      <c r="H338" s="7"/>
+      <c r="F338" s="8"/>
+      <c r="H338" s="8"/>
     </row>
     <row r="339">
-      <c r="F339" s="7"/>
-      <c r="H339" s="7"/>
+      <c r="F339" s="8"/>
+      <c r="H339" s="8"/>
     </row>
     <row r="340">
-      <c r="F340" s="7"/>
-      <c r="H340" s="7"/>
+      <c r="F340" s="8"/>
+      <c r="H340" s="8"/>
     </row>
     <row r="341">
-      <c r="F341" s="7"/>
-      <c r="H341" s="7"/>
+      <c r="F341" s="8"/>
+      <c r="H341" s="8"/>
     </row>
     <row r="342">
-      <c r="F342" s="7"/>
-      <c r="H342" s="7"/>
+      <c r="F342" s="8"/>
+      <c r="H342" s="8"/>
     </row>
     <row r="343">
-      <c r="F343" s="7"/>
-      <c r="H343" s="7"/>
+      <c r="F343" s="8"/>
+      <c r="H343" s="8"/>
     </row>
     <row r="344">
-      <c r="F344" s="7"/>
-      <c r="H344" s="7"/>
+      <c r="F344" s="8"/>
+      <c r="H344" s="8"/>
     </row>
     <row r="345">
-      <c r="F345" s="7"/>
-      <c r="H345" s="7"/>
+      <c r="F345" s="8"/>
+      <c r="H345" s="8"/>
     </row>
     <row r="346">
-      <c r="F346" s="7"/>
-      <c r="H346" s="7"/>
+      <c r="F346" s="8"/>
+      <c r="H346" s="8"/>
     </row>
     <row r="347">
-      <c r="F347" s="7"/>
-      <c r="H347" s="7"/>
+      <c r="F347" s="8"/>
+      <c r="H347" s="8"/>
     </row>
     <row r="348">
-      <c r="F348" s="7"/>
-      <c r="H348" s="7"/>
+      <c r="F348" s="8"/>
+      <c r="H348" s="8"/>
     </row>
     <row r="349">
-      <c r="F349" s="7"/>
-      <c r="H349" s="7"/>
+      <c r="F349" s="8"/>
+      <c r="H349" s="8"/>
     </row>
     <row r="350">
-      <c r="F350" s="7"/>
-      <c r="H350" s="7"/>
+      <c r="F350" s="8"/>
+      <c r="H350" s="8"/>
     </row>
     <row r="351">
-      <c r="F351" s="7"/>
-      <c r="H351" s="7"/>
+      <c r="F351" s="8"/>
+      <c r="H351" s="8"/>
     </row>
     <row r="352">
-      <c r="F352" s="7"/>
-      <c r="H352" s="7"/>
+      <c r="F352" s="8"/>
+      <c r="H352" s="8"/>
     </row>
     <row r="353">
-      <c r="F353" s="7"/>
-      <c r="H353" s="7"/>
+      <c r="F353" s="8"/>
+      <c r="H353" s="8"/>
     </row>
     <row r="354">
-      <c r="F354" s="7"/>
-      <c r="H354" s="7"/>
+      <c r="F354" s="8"/>
+      <c r="H354" s="8"/>
     </row>
     <row r="355">
-      <c r="F355" s="7"/>
-      <c r="H355" s="7"/>
+      <c r="F355" s="8"/>
+      <c r="H355" s="8"/>
     </row>
     <row r="356">
-      <c r="F356" s="7"/>
-      <c r="H356" s="7"/>
+      <c r="F356" s="8"/>
+      <c r="H356" s="8"/>
     </row>
     <row r="357">
-      <c r="F357" s="7"/>
-      <c r="H357" s="7"/>
+      <c r="F357" s="8"/>
+      <c r="H357" s="8"/>
     </row>
     <row r="358">
-      <c r="F358" s="7"/>
-      <c r="H358" s="7"/>
+      <c r="F358" s="8"/>
+      <c r="H358" s="8"/>
     </row>
     <row r="359">
-      <c r="F359" s="7"/>
-      <c r="H359" s="7"/>
+      <c r="F359" s="8"/>
+      <c r="H359" s="8"/>
     </row>
     <row r="360">
-      <c r="F360" s="7"/>
-      <c r="H360" s="7"/>
+      <c r="F360" s="8"/>
+      <c r="H360" s="8"/>
     </row>
     <row r="361">
-      <c r="F361" s="7"/>
-      <c r="H361" s="7"/>
+      <c r="F361" s="8"/>
+      <c r="H361" s="8"/>
     </row>
     <row r="362">
-      <c r="F362" s="7"/>
-      <c r="H362" s="7"/>
+      <c r="F362" s="8"/>
+      <c r="H362" s="8"/>
     </row>
     <row r="363">
-      <c r="F363" s="7"/>
-      <c r="H363" s="7"/>
+      <c r="F363" s="8"/>
+      <c r="H363" s="8"/>
     </row>
     <row r="364">
-      <c r="F364" s="7"/>
-      <c r="H364" s="7"/>
+      <c r="F364" s="8"/>
+      <c r="H364" s="8"/>
     </row>
     <row r="365">
-      <c r="F365" s="7"/>
-      <c r="H365" s="7"/>
+      <c r="F365" s="8"/>
+      <c r="H365" s="8"/>
     </row>
     <row r="366">
-      <c r="F366" s="7"/>
-      <c r="H366" s="7"/>
+      <c r="F366" s="8"/>
+      <c r="H366" s="8"/>
     </row>
     <row r="367">
-      <c r="F367" s="7"/>
-      <c r="H367" s="7"/>
+      <c r="F367" s="8"/>
+      <c r="H367" s="8"/>
     </row>
     <row r="368">
-      <c r="F368" s="7"/>
-      <c r="H368" s="7"/>
+      <c r="F368" s="8"/>
+      <c r="H368" s="8"/>
     </row>
     <row r="369">
-      <c r="F369" s="7"/>
-      <c r="H369" s="7"/>
+      <c r="F369" s="8"/>
+      <c r="H369" s="8"/>
     </row>
     <row r="370">
-      <c r="F370" s="7"/>
-      <c r="H370" s="7"/>
+      <c r="F370" s="8"/>
+      <c r="H370" s="8"/>
     </row>
     <row r="371">
-      <c r="F371" s="7"/>
-      <c r="H371" s="7"/>
+      <c r="F371" s="8"/>
+      <c r="H371" s="8"/>
     </row>
     <row r="372">
-      <c r="F372" s="7"/>
-      <c r="H372" s="7"/>
+      <c r="F372" s="8"/>
+      <c r="H372" s="8"/>
     </row>
     <row r="373">
-      <c r="F373" s="7"/>
-      <c r="H373" s="7"/>
+      <c r="F373" s="8"/>
+      <c r="H373" s="8"/>
     </row>
     <row r="374">
-      <c r="F374" s="7"/>
-      <c r="H374" s="7"/>
+      <c r="F374" s="8"/>
+      <c r="H374" s="8"/>
     </row>
     <row r="375">
-      <c r="F375" s="7"/>
-      <c r="H375" s="7"/>
+      <c r="F375" s="8"/>
+      <c r="H375" s="8"/>
     </row>
     <row r="376">
-      <c r="F376" s="7"/>
-      <c r="H376" s="7"/>
+      <c r="F376" s="8"/>
+      <c r="H376" s="8"/>
     </row>
     <row r="377">
-      <c r="F377" s="7"/>
-      <c r="H377" s="7"/>
+      <c r="F377" s="8"/>
+      <c r="H377" s="8"/>
     </row>
     <row r="378">
-      <c r="F378" s="7"/>
-      <c r="H378" s="7"/>
+      <c r="F378" s="8"/>
+      <c r="H378" s="8"/>
     </row>
     <row r="379">
-      <c r="F379" s="7"/>
-      <c r="H379" s="7"/>
+      <c r="F379" s="8"/>
+      <c r="H379" s="8"/>
     </row>
     <row r="380">
-      <c r="F380" s="7"/>
-      <c r="H380" s="7"/>
+      <c r="F380" s="8"/>
+      <c r="H380" s="8"/>
     </row>
     <row r="381">
-      <c r="F381" s="7"/>
-      <c r="H381" s="7"/>
+      <c r="F381" s="8"/>
+      <c r="H381" s="8"/>
     </row>
     <row r="382">
-      <c r="F382" s="7"/>
-      <c r="H382" s="7"/>
+      <c r="F382" s="8"/>
+      <c r="H382" s="8"/>
     </row>
     <row r="383">
-      <c r="F383" s="7"/>
-      <c r="H383" s="7"/>
+      <c r="F383" s="8"/>
+      <c r="H383" s="8"/>
     </row>
     <row r="384">
-      <c r="F384" s="7"/>
-      <c r="H384" s="7"/>
+      <c r="F384" s="8"/>
+      <c r="H384" s="8"/>
     </row>
     <row r="385">
-      <c r="F385" s="7"/>
-      <c r="H385" s="7"/>
+      <c r="F385" s="8"/>
+      <c r="H385" s="8"/>
     </row>
     <row r="386">
-      <c r="F386" s="7"/>
-      <c r="H386" s="7"/>
+      <c r="F386" s="8"/>
+      <c r="H386" s="8"/>
     </row>
     <row r="387">
-      <c r="F387" s="7"/>
-      <c r="H387" s="7"/>
+      <c r="F387" s="8"/>
+      <c r="H387" s="8"/>
     </row>
     <row r="388">
-      <c r="F388" s="7"/>
-      <c r="H388" s="7"/>
+      <c r="F388" s="8"/>
+      <c r="H388" s="8"/>
     </row>
     <row r="389">
-      <c r="F389" s="7"/>
-      <c r="H389" s="7"/>
+      <c r="F389" s="8"/>
+      <c r="H389" s="8"/>
     </row>
     <row r="390">
-      <c r="F390" s="7"/>
-      <c r="H390" s="7"/>
+      <c r="F390" s="8"/>
+      <c r="H390" s="8"/>
     </row>
     <row r="391">
-      <c r="F391" s="7"/>
-      <c r="H391" s="7"/>
+      <c r="F391" s="8"/>
+      <c r="H391" s="8"/>
     </row>
     <row r="392">
-      <c r="F392" s="7"/>
-      <c r="H392" s="7"/>
+      <c r="F392" s="8"/>
+      <c r="H392" s="8"/>
     </row>
     <row r="393">
-      <c r="F393" s="7"/>
-      <c r="H393" s="7"/>
+      <c r="F393" s="8"/>
+      <c r="H393" s="8"/>
     </row>
     <row r="394">
-      <c r="F394" s="7"/>
-      <c r="H394" s="7"/>
+      <c r="F394" s="8"/>
+      <c r="H394" s="8"/>
     </row>
     <row r="395">
-      <c r="F395" s="7"/>
-      <c r="H395" s="7"/>
+      <c r="F395" s="8"/>
+      <c r="H395" s="8"/>
     </row>
     <row r="396">
-      <c r="F396" s="7"/>
-      <c r="H396" s="7"/>
+      <c r="F396" s="8"/>
+      <c r="H396" s="8"/>
     </row>
     <row r="397">
-      <c r="F397" s="7"/>
-      <c r="H397" s="7"/>
+      <c r="F397" s="8"/>
+      <c r="H397" s="8"/>
     </row>
     <row r="398">
-      <c r="F398" s="7"/>
-      <c r="H398" s="7"/>
+      <c r="F398" s="8"/>
+      <c r="H398" s="8"/>
     </row>
     <row r="399">
-      <c r="F399" s="7"/>
-      <c r="H399" s="7"/>
+      <c r="F399" s="8"/>
+      <c r="H399" s="8"/>
     </row>
     <row r="400">
-      <c r="F400" s="7"/>
-      <c r="H400" s="7"/>
+      <c r="F400" s="8"/>
+      <c r="H400" s="8"/>
     </row>
     <row r="401">
-      <c r="F401" s="7"/>
-      <c r="H401" s="7"/>
+      <c r="F401" s="8"/>
+      <c r="H401" s="8"/>
     </row>
     <row r="402">
-      <c r="F402" s="7"/>
-      <c r="H402" s="7"/>
+      <c r="F402" s="8"/>
+      <c r="H402" s="8"/>
     </row>
     <row r="403">
-      <c r="F403" s="7"/>
-      <c r="H403" s="7"/>
+      <c r="F403" s="8"/>
+      <c r="H403" s="8"/>
     </row>
     <row r="404">
-      <c r="F404" s="7"/>
-      <c r="H404" s="7"/>
+      <c r="F404" s="8"/>
+      <c r="H404" s="8"/>
     </row>
     <row r="405">
-      <c r="F405" s="7"/>
-      <c r="H405" s="7"/>
+      <c r="F405" s="8"/>
+      <c r="H405" s="8"/>
     </row>
     <row r="406">
-      <c r="F406" s="7"/>
-      <c r="H406" s="7"/>
+      <c r="F406" s="8"/>
+      <c r="H406" s="8"/>
     </row>
     <row r="407">
-      <c r="F407" s="7"/>
-      <c r="H407" s="7"/>
+      <c r="F407" s="8"/>
+      <c r="H407" s="8"/>
     </row>
     <row r="408">
-      <c r="F408" s="7"/>
-      <c r="H408" s="7"/>
+      <c r="F408" s="8"/>
+      <c r="H408" s="8"/>
     </row>
     <row r="409">
-      <c r="F409" s="7"/>
-      <c r="H409" s="7"/>
+      <c r="F409" s="8"/>
+      <c r="H409" s="8"/>
     </row>
     <row r="410">
-      <c r="F410" s="7"/>
-      <c r="H410" s="7"/>
+      <c r="F410" s="8"/>
+      <c r="H410" s="8"/>
     </row>
     <row r="411">
-      <c r="F411" s="7"/>
-      <c r="H411" s="7"/>
+      <c r="F411" s="8"/>
+      <c r="H411" s="8"/>
     </row>
     <row r="412">
-      <c r="F412" s="7"/>
-      <c r="H412" s="7"/>
+      <c r="F412" s="8"/>
+      <c r="H412" s="8"/>
     </row>
     <row r="413">
-      <c r="F413" s="7"/>
-      <c r="H413" s="7"/>
+      <c r="F413" s="8"/>
+      <c r="H413" s="8"/>
     </row>
     <row r="414">
-      <c r="F414" s="7"/>
-      <c r="H414" s="7"/>
+      <c r="F414" s="8"/>
+      <c r="H414" s="8"/>
     </row>
     <row r="415">
-      <c r="F415" s="7"/>
-      <c r="H415" s="7"/>
+      <c r="F415" s="8"/>
+      <c r="H415" s="8"/>
     </row>
     <row r="416">
-      <c r="F416" s="7"/>
-      <c r="H416" s="7"/>
+      <c r="F416" s="8"/>
+      <c r="H416" s="8"/>
     </row>
     <row r="417">
-      <c r="F417" s="7"/>
-      <c r="H417" s="7"/>
+      <c r="F417" s="8"/>
+      <c r="H417" s="8"/>
     </row>
     <row r="418">
-      <c r="F418" s="7"/>
-      <c r="H418" s="7"/>
+      <c r="F418" s="8"/>
+      <c r="H418" s="8"/>
     </row>
     <row r="419">
-      <c r="F419" s="7"/>
-      <c r="H419" s="7"/>
+      <c r="F419" s="8"/>
+      <c r="H419" s="8"/>
     </row>
     <row r="420">
-      <c r="F420" s="7"/>
-      <c r="H420" s="7"/>
+      <c r="F420" s="8"/>
+      <c r="H420" s="8"/>
     </row>
     <row r="421">
-      <c r="F421" s="7"/>
-      <c r="H421" s="7"/>
+      <c r="F421" s="8"/>
+      <c r="H421" s="8"/>
     </row>
     <row r="422">
-      <c r="F422" s="7"/>
-      <c r="H422" s="7"/>
+      <c r="F422" s="8"/>
+      <c r="H422" s="8"/>
     </row>
     <row r="423">
-      <c r="F423" s="7"/>
-      <c r="H423" s="7"/>
+      <c r="F423" s="8"/>
+      <c r="H423" s="8"/>
     </row>
     <row r="424">
-      <c r="F424" s="7"/>
-      <c r="H424" s="7"/>
+      <c r="F424" s="8"/>
+      <c r="H424" s="8"/>
     </row>
     <row r="425">
-      <c r="F425" s="7"/>
-      <c r="H425" s="7"/>
+      <c r="F425" s="8"/>
+      <c r="H425" s="8"/>
     </row>
     <row r="426">
-      <c r="F426" s="7"/>
-      <c r="H426" s="7"/>
+      <c r="F426" s="8"/>
+      <c r="H426" s="8"/>
     </row>
     <row r="427">
-      <c r="F427" s="7"/>
-      <c r="H427" s="7"/>
+      <c r="F427" s="8"/>
+      <c r="H427" s="8"/>
     </row>
     <row r="428">
-      <c r="F428" s="7"/>
-      <c r="H428" s="7"/>
+      <c r="F428" s="8"/>
+      <c r="H428" s="8"/>
     </row>
     <row r="429">
-      <c r="F429" s="7"/>
-      <c r="H429" s="7"/>
+      <c r="F429" s="8"/>
+      <c r="H429" s="8"/>
     </row>
     <row r="430">
-      <c r="F430" s="7"/>
-      <c r="H430" s="7"/>
+      <c r="F430" s="8"/>
+      <c r="H430" s="8"/>
     </row>
     <row r="431">
-      <c r="F431" s="7"/>
-      <c r="H431" s="7"/>
+      <c r="F431" s="8"/>
+      <c r="H431" s="8"/>
     </row>
     <row r="432">
-      <c r="F432" s="7"/>
-      <c r="H432" s="7"/>
+      <c r="F432" s="8"/>
+      <c r="H432" s="8"/>
     </row>
     <row r="433">
-      <c r="F433" s="7"/>
-      <c r="H433" s="7"/>
+      <c r="F433" s="8"/>
+      <c r="H433" s="8"/>
     </row>
     <row r="434">
-      <c r="F434" s="7"/>
-      <c r="H434" s="7"/>
+      <c r="F434" s="8"/>
+      <c r="H434" s="8"/>
     </row>
     <row r="435">
-      <c r="F435" s="7"/>
-      <c r="H435" s="7"/>
+      <c r="F435" s="8"/>
+      <c r="H435" s="8"/>
     </row>
     <row r="436">
-      <c r="F436" s="7"/>
-      <c r="H436" s="7"/>
+      <c r="F436" s="8"/>
+      <c r="H436" s="8"/>
     </row>
     <row r="437">
-      <c r="F437" s="7"/>
-      <c r="H437" s="7"/>
+      <c r="F437" s="8"/>
+      <c r="H437" s="8"/>
     </row>
     <row r="438">
-      <c r="F438" s="7"/>
-      <c r="H438" s="7"/>
+      <c r="F438" s="8"/>
+      <c r="H438" s="8"/>
     </row>
     <row r="439">
-      <c r="F439" s="7"/>
-      <c r="H439" s="7"/>
+      <c r="F439" s="8"/>
+      <c r="H439" s="8"/>
     </row>
     <row r="440">
-      <c r="F440" s="7"/>
-      <c r="H440" s="7"/>
+      <c r="F440" s="8"/>
+      <c r="H440" s="8"/>
     </row>
     <row r="441">
-      <c r="F441" s="7"/>
-      <c r="H441" s="7"/>
+      <c r="F441" s="8"/>
+      <c r="H441" s="8"/>
     </row>
     <row r="442">
-      <c r="F442" s="7"/>
-      <c r="H442" s="7"/>
+      <c r="F442" s="8"/>
+      <c r="H442" s="8"/>
     </row>
     <row r="443">
-      <c r="F443" s="7"/>
-      <c r="H443" s="7"/>
+      <c r="F443" s="8"/>
+      <c r="H443" s="8"/>
     </row>
     <row r="444">
-      <c r="F444" s="7"/>
-      <c r="H444" s="7"/>
+      <c r="F444" s="8"/>
+      <c r="H444" s="8"/>
     </row>
     <row r="445">
-      <c r="F445" s="7"/>
-      <c r="H445" s="7"/>
+      <c r="F445" s="8"/>
+      <c r="H445" s="8"/>
     </row>
     <row r="446">
-      <c r="F446" s="7"/>
-      <c r="H446" s="7"/>
+      <c r="F446" s="8"/>
+      <c r="H446" s="8"/>
     </row>
     <row r="447">
-      <c r="F447" s="7"/>
-      <c r="H447" s="7"/>
+      <c r="F447" s="8"/>
+      <c r="H447" s="8"/>
     </row>
     <row r="448">
-      <c r="F448" s="7"/>
-      <c r="H448" s="7"/>
+      <c r="F448" s="8"/>
+      <c r="H448" s="8"/>
     </row>
     <row r="449">
-      <c r="F449" s="7"/>
-      <c r="H449" s="7"/>
+      <c r="F449" s="8"/>
+      <c r="H449" s="8"/>
     </row>
     <row r="450">
-      <c r="F450" s="7"/>
-      <c r="H450" s="7"/>
+      <c r="F450" s="8"/>
+      <c r="H450" s="8"/>
     </row>
     <row r="451">
-      <c r="F451" s="7"/>
-      <c r="H451" s="7"/>
+      <c r="F451" s="8"/>
+      <c r="H451" s="8"/>
     </row>
     <row r="452">
-      <c r="F452" s="7"/>
-      <c r="H452" s="7"/>
+      <c r="F452" s="8"/>
+      <c r="H452" s="8"/>
     </row>
     <row r="453">
-      <c r="F453" s="7"/>
-      <c r="H453" s="7"/>
+      <c r="F453" s="8"/>
+      <c r="H453" s="8"/>
     </row>
     <row r="454">
-      <c r="F454" s="7"/>
-      <c r="H454" s="7"/>
+      <c r="F454" s="8"/>
+      <c r="H454" s="8"/>
     </row>
     <row r="455">
-      <c r="F455" s="7"/>
-      <c r="H455" s="7"/>
+      <c r="F455" s="8"/>
+      <c r="H455" s="8"/>
     </row>
     <row r="456">
-      <c r="F456" s="7"/>
-      <c r="H456" s="7"/>
+      <c r="F456" s="8"/>
+      <c r="H456" s="8"/>
     </row>
     <row r="457">
-      <c r="F457" s="7"/>
-      <c r="H457" s="7"/>
+      <c r="F457" s="8"/>
+      <c r="H457" s="8"/>
     </row>
     <row r="458">
-      <c r="F458" s="7"/>
-      <c r="H458" s="7"/>
+      <c r="F458" s="8"/>
+      <c r="H458" s="8"/>
     </row>
     <row r="459">
-      <c r="F459" s="7"/>
-      <c r="H459" s="7"/>
+      <c r="F459" s="8"/>
+      <c r="H459" s="8"/>
     </row>
     <row r="460">
-      <c r="F460" s="7"/>
-      <c r="H460" s="7"/>
+      <c r="F460" s="8"/>
+      <c r="H460" s="8"/>
     </row>
     <row r="461">
-      <c r="F461" s="7"/>
-      <c r="H461" s="7"/>
+      <c r="F461" s="8"/>
+      <c r="H461" s="8"/>
     </row>
     <row r="462">
-      <c r="F462" s="7"/>
-      <c r="H462" s="7"/>
+      <c r="F462" s="8"/>
+      <c r="H462" s="8"/>
     </row>
     <row r="463">
-      <c r="F463" s="7"/>
-      <c r="H463" s="7"/>
+      <c r="F463" s="8"/>
+      <c r="H463" s="8"/>
     </row>
     <row r="464">
-      <c r="F464" s="7"/>
-      <c r="H464" s="7"/>
+      <c r="F464" s="8"/>
+      <c r="H464" s="8"/>
     </row>
     <row r="465">
-      <c r="F465" s="7"/>
-      <c r="H465" s="7"/>
+      <c r="F465" s="8"/>
+      <c r="H465" s="8"/>
     </row>
     <row r="466">
-      <c r="F466" s="7"/>
-      <c r="H466" s="7"/>
+      <c r="F466" s="8"/>
+      <c r="H466" s="8"/>
     </row>
     <row r="467">
-      <c r="F467" s="7"/>
-      <c r="H467" s="7"/>
+      <c r="F467" s="8"/>
+      <c r="H467" s="8"/>
     </row>
     <row r="468">
-      <c r="F468" s="7"/>
-      <c r="H468" s="7"/>
+      <c r="F468" s="8"/>
+      <c r="H468" s="8"/>
     </row>
     <row r="469">
-      <c r="F469" s="7"/>
-      <c r="H469" s="7"/>
+      <c r="F469" s="8"/>
+      <c r="H469" s="8"/>
     </row>
     <row r="470">
-      <c r="F470" s="7"/>
-      <c r="H470" s="7"/>
+      <c r="F470" s="8"/>
+      <c r="H470" s="8"/>
     </row>
     <row r="471">
-      <c r="F471" s="7"/>
-      <c r="H471" s="7"/>
+      <c r="F471" s="8"/>
+      <c r="H471" s="8"/>
     </row>
     <row r="472">
-      <c r="F472" s="7"/>
-      <c r="H472" s="7"/>
+      <c r="F472" s="8"/>
+      <c r="H472" s="8"/>
     </row>
     <row r="473">
-      <c r="F473" s="7"/>
-      <c r="H473" s="7"/>
+      <c r="F473" s="8"/>
+      <c r="H473" s="8"/>
     </row>
     <row r="474">
-      <c r="F474" s="7"/>
-      <c r="H474" s="7"/>
+      <c r="F474" s="8"/>
+      <c r="H474" s="8"/>
     </row>
     <row r="475">
-      <c r="F475" s="7"/>
-      <c r="H475" s="7"/>
+      <c r="F475" s="8"/>
+      <c r="H475" s="8"/>
     </row>
     <row r="476">
-      <c r="F476" s="7"/>
-      <c r="H476" s="7"/>
+      <c r="F476" s="8"/>
+      <c r="H476" s="8"/>
     </row>
     <row r="477">
-      <c r="F477" s="7"/>
-      <c r="H477" s="7"/>
+      <c r="F477" s="8"/>
+      <c r="H477" s="8"/>
     </row>
     <row r="478">
-      <c r="F478" s="7"/>
-      <c r="H478" s="7"/>
+      <c r="F478" s="8"/>
+      <c r="H478" s="8"/>
     </row>
     <row r="479">
-      <c r="F479" s="7"/>
-      <c r="H479" s="7"/>
+      <c r="F479" s="8"/>
+      <c r="H479" s="8"/>
     </row>
     <row r="480">
-      <c r="F480" s="7"/>
-      <c r="H480" s="7"/>
+      <c r="F480" s="8"/>
+      <c r="H480" s="8"/>
     </row>
     <row r="481">
-      <c r="F481" s="7"/>
-      <c r="H481" s="7"/>
+      <c r="F481" s="8"/>
+      <c r="H481" s="8"/>
     </row>
     <row r="482">
-      <c r="F482" s="7"/>
-      <c r="H482" s="7"/>
+      <c r="F482" s="8"/>
+      <c r="H482" s="8"/>
     </row>
     <row r="483">
-      <c r="F483" s="7"/>
-      <c r="H483" s="7"/>
+      <c r="F483" s="8"/>
+      <c r="H483" s="8"/>
     </row>
     <row r="484">
-      <c r="F484" s="7"/>
-      <c r="H484" s="7"/>
+      <c r="F484" s="8"/>
+      <c r="H484" s="8"/>
     </row>
     <row r="485">
-      <c r="F485" s="7"/>
-      <c r="H485" s="7"/>
+      <c r="F485" s="8"/>
+      <c r="H485" s="8"/>
     </row>
     <row r="486">
-      <c r="F486" s="7"/>
-      <c r="H486" s="7"/>
+      <c r="F486" s="8"/>
+      <c r="H486" s="8"/>
     </row>
     <row r="487">
-      <c r="F487" s="7"/>
-      <c r="H487" s="7"/>
+      <c r="F487" s="8"/>
+      <c r="H487" s="8"/>
     </row>
     <row r="488">
-      <c r="F488" s="7"/>
-      <c r="H488" s="7"/>
+      <c r="F488" s="8"/>
+      <c r="H488" s="8"/>
     </row>
     <row r="489">
-      <c r="F489" s="7"/>
-      <c r="H489" s="7"/>
+      <c r="F489" s="8"/>
+      <c r="H489" s="8"/>
     </row>
     <row r="490">
-      <c r="F490" s="7"/>
-      <c r="H490" s="7"/>
+      <c r="F490" s="8"/>
+      <c r="H490" s="8"/>
     </row>
     <row r="491">
-      <c r="F491" s="7"/>
-      <c r="H491" s="7"/>
+      <c r="F491" s="8"/>
+      <c r="H491" s="8"/>
     </row>
     <row r="492">
-      <c r="F492" s="7"/>
-      <c r="H492" s="7"/>
+      <c r="F492" s="8"/>
+      <c r="H492" s="8"/>
     </row>
     <row r="493">
-      <c r="F493" s="7"/>
-      <c r="H493" s="7"/>
+      <c r="F493" s="8"/>
+      <c r="H493" s="8"/>
     </row>
     <row r="494">
-      <c r="F494" s="7"/>
-      <c r="H494" s="7"/>
+      <c r="F494" s="8"/>
+      <c r="H494" s="8"/>
     </row>
     <row r="495">
-      <c r="F495" s="7"/>
-      <c r="H495" s="7"/>
+      <c r="F495" s="8"/>
+      <c r="H495" s="8"/>
     </row>
     <row r="496">
-      <c r="F496" s="7"/>
-      <c r="H496" s="7"/>
+      <c r="F496" s="8"/>
+      <c r="H496" s="8"/>
     </row>
     <row r="497">
-      <c r="F497" s="7"/>
-      <c r="H497" s="7"/>
+      <c r="F497" s="8"/>
+      <c r="H497" s="8"/>
     </row>
     <row r="498">
-      <c r="F498" s="7"/>
-      <c r="H498" s="7"/>
+      <c r="F498" s="8"/>
+      <c r="H498" s="8"/>
     </row>
     <row r="499">
-      <c r="F499" s="7"/>
-      <c r="H499" s="7"/>
+      <c r="F499" s="8"/>
+      <c r="H499" s="8"/>
     </row>
     <row r="500">
-      <c r="F500" s="7"/>
-      <c r="H500" s="7"/>
+      <c r="F500" s="8"/>
+      <c r="H500" s="8"/>
     </row>
     <row r="501">
-      <c r="F501" s="7"/>
-      <c r="H501" s="7"/>
+      <c r="F501" s="8"/>
+      <c r="H501" s="8"/>
     </row>
     <row r="502">
-      <c r="F502" s="7"/>
-      <c r="H502" s="7"/>
+      <c r="F502" s="8"/>
+      <c r="H502" s="8"/>
     </row>
     <row r="503">
-      <c r="F503" s="7"/>
-      <c r="H503" s="7"/>
+      <c r="F503" s="8"/>
+      <c r="H503" s="8"/>
     </row>
     <row r="504">
-      <c r="F504" s="7"/>
-      <c r="H504" s="7"/>
+      <c r="F504" s="8"/>
+      <c r="H504" s="8"/>
     </row>
     <row r="505">
-      <c r="F505" s="7"/>
-      <c r="H505" s="7"/>
+      <c r="F505" s="8"/>
+      <c r="H505" s="8"/>
     </row>
     <row r="506">
-      <c r="F506" s="7"/>
-      <c r="H506" s="7"/>
+      <c r="F506" s="8"/>
+      <c r="H506" s="8"/>
     </row>
     <row r="507">
-      <c r="F507" s="7"/>
-      <c r="H507" s="7"/>
+      <c r="F507" s="8"/>
+      <c r="H507" s="8"/>
     </row>
     <row r="508">
-      <c r="F508" s="7"/>
-      <c r="H508" s="7"/>
+      <c r="F508" s="8"/>
+      <c r="H508" s="8"/>
     </row>
     <row r="509">
-      <c r="F509" s="7"/>
-      <c r="H509" s="7"/>
+      <c r="F509" s="8"/>
+      <c r="H509" s="8"/>
     </row>
     <row r="510">
-      <c r="F510" s="7"/>
-      <c r="H510" s="7"/>
+      <c r="F510" s="8"/>
+      <c r="H510" s="8"/>
     </row>
     <row r="511">
-      <c r="F511" s="7"/>
-      <c r="H511" s="7"/>
+      <c r="F511" s="8"/>
+      <c r="H511" s="8"/>
     </row>
     <row r="512">
-      <c r="F512" s="7"/>
-      <c r="H512" s="7"/>
+      <c r="F512" s="8"/>
+      <c r="H512" s="8"/>
     </row>
     <row r="513">
-      <c r="F513" s="7"/>
-      <c r="H513" s="7"/>
+      <c r="F513" s="8"/>
+      <c r="H513" s="8"/>
     </row>
     <row r="514">
-      <c r="F514" s="7"/>
-      <c r="H514" s="7"/>
+      <c r="F514" s="8"/>
+      <c r="H514" s="8"/>
     </row>
     <row r="515">
-      <c r="F515" s="7"/>
-      <c r="H515" s="7"/>
+      <c r="F515" s="8"/>
+      <c r="H515" s="8"/>
     </row>
     <row r="516">
-      <c r="F516" s="7"/>
-      <c r="H516" s="7"/>
+      <c r="F516" s="8"/>
+      <c r="H516" s="8"/>
     </row>
     <row r="517">
-      <c r="F517" s="7"/>
-      <c r="H517" s="7"/>
+      <c r="F517" s="8"/>
+      <c r="H517" s="8"/>
     </row>
     <row r="518">
-      <c r="F518" s="7"/>
-      <c r="H518" s="7"/>
+      <c r="F518" s="8"/>
+      <c r="H518" s="8"/>
     </row>
     <row r="519">
-      <c r="F519" s="7"/>
-      <c r="H519" s="7"/>
+      <c r="F519" s="8"/>
+      <c r="H519" s="8"/>
     </row>
     <row r="520">
-      <c r="F520" s="7"/>
-      <c r="H520" s="7"/>
+      <c r="F520" s="8"/>
+      <c r="H520" s="8"/>
     </row>
     <row r="521">
-      <c r="F521" s="7"/>
-      <c r="H521" s="7"/>
+      <c r="F521" s="8"/>
+      <c r="H521" s="8"/>
     </row>
     <row r="522">
-      <c r="F522" s="7"/>
-      <c r="H522" s="7"/>
+      <c r="F522" s="8"/>
+      <c r="H522" s="8"/>
     </row>
     <row r="523">
-      <c r="F523" s="7"/>
-      <c r="H523" s="7"/>
+      <c r="F523" s="8"/>
+      <c r="H523" s="8"/>
     </row>
     <row r="524">
-      <c r="F524" s="7"/>
-      <c r="H524" s="7"/>
+      <c r="F524" s="8"/>
+      <c r="H524" s="8"/>
     </row>
     <row r="525">
-      <c r="F525" s="7"/>
-      <c r="H525" s="7"/>
+      <c r="F525" s="8"/>
+      <c r="H525" s="8"/>
     </row>
     <row r="526">
-      <c r="F526" s="7"/>
-      <c r="H526" s="7"/>
+      <c r="F526" s="8"/>
+      <c r="H526" s="8"/>
     </row>
     <row r="527">
-      <c r="F527" s="7"/>
-      <c r="H527" s="7"/>
+      <c r="F527" s="8"/>
+      <c r="H527" s="8"/>
     </row>
     <row r="528">
-      <c r="F528" s="7"/>
-      <c r="H528" s="7"/>
+      <c r="F528" s="8"/>
+      <c r="H528" s="8"/>
     </row>
     <row r="529">
-      <c r="F529" s="7"/>
-      <c r="H529" s="7"/>
+      <c r="F529" s="8"/>
+      <c r="H529" s="8"/>
     </row>
     <row r="530">
-      <c r="F530" s="7"/>
-      <c r="H530" s="7"/>
+      <c r="F530" s="8"/>
+      <c r="H530" s="8"/>
     </row>
     <row r="531">
-      <c r="F531" s="7"/>
-      <c r="H531" s="7"/>
+      <c r="F531" s="8"/>
+      <c r="H531" s="8"/>
     </row>
     <row r="532">
-      <c r="F532" s="7"/>
-      <c r="H532" s="7"/>
+      <c r="F532" s="8"/>
+      <c r="H532" s="8"/>
     </row>
     <row r="533">
-      <c r="F533" s="7"/>
-      <c r="H533" s="7"/>
+      <c r="F533" s="8"/>
+      <c r="H533" s="8"/>
     </row>
     <row r="534">
-      <c r="F534" s="7"/>
-      <c r="H534" s="7"/>
+      <c r="F534" s="8"/>
+      <c r="H534" s="8"/>
     </row>
     <row r="535">
-      <c r="F535" s="7"/>
-      <c r="H535" s="7"/>
+      <c r="F535" s="8"/>
+      <c r="H535" s="8"/>
     </row>
     <row r="536">
-      <c r="F536" s="7"/>
-      <c r="H536" s="7"/>
+      <c r="F536" s="8"/>
+      <c r="H536" s="8"/>
     </row>
     <row r="537">
-      <c r="F537" s="7"/>
-      <c r="H537" s="7"/>
+      <c r="F537" s="8"/>
+      <c r="H537" s="8"/>
     </row>
     <row r="538">
-      <c r="F538" s="7"/>
-      <c r="H538" s="7"/>
+      <c r="F538" s="8"/>
+      <c r="H538" s="8"/>
     </row>
     <row r="539">
-      <c r="F539" s="7"/>
-      <c r="H539" s="7"/>
+      <c r="F539" s="8"/>
+      <c r="H539" s="8"/>
     </row>
     <row r="540">
-      <c r="F540" s="7"/>
-      <c r="H540" s="7"/>
+      <c r="F540" s="8"/>
+      <c r="H540" s="8"/>
     </row>
     <row r="541">
-      <c r="F541" s="7"/>
-      <c r="H541" s="7"/>
+      <c r="F541" s="8"/>
+      <c r="H541" s="8"/>
     </row>
     <row r="542">
-      <c r="F542" s="7"/>
-      <c r="H542" s="7"/>
+      <c r="F542" s="8"/>
+      <c r="H542" s="8"/>
     </row>
     <row r="543">
-      <c r="F543" s="7"/>
-      <c r="H543" s="7"/>
+      <c r="F543" s="8"/>
+      <c r="H543" s="8"/>
     </row>
     <row r="544">
-      <c r="F544" s="7"/>
-      <c r="H544" s="7"/>
+      <c r="F544" s="8"/>
+      <c r="H544" s="8"/>
     </row>
     <row r="545">
-      <c r="F545" s="7"/>
-      <c r="H545" s="7"/>
+      <c r="F545" s="8"/>
+      <c r="H545" s="8"/>
     </row>
     <row r="546">
-      <c r="F546" s="7"/>
-      <c r="H546" s="7"/>
+      <c r="F546" s="8"/>
+      <c r="H546" s="8"/>
     </row>
     <row r="547">
-      <c r="F547" s="7"/>
-      <c r="H547" s="7"/>
+      <c r="F547" s="8"/>
+      <c r="H547" s="8"/>
     </row>
     <row r="548">
-      <c r="F548" s="7"/>
-      <c r="H548" s="7"/>
+      <c r="F548" s="8"/>
+      <c r="H548" s="8"/>
     </row>
     <row r="549">
-      <c r="F549" s="7"/>
-      <c r="H549" s="7"/>
+      <c r="F549" s="8"/>
+      <c r="H549" s="8"/>
     </row>
     <row r="550">
-      <c r="F550" s="7"/>
-      <c r="H550" s="7"/>
+      <c r="F550" s="8"/>
+      <c r="H550" s="8"/>
     </row>
     <row r="551">
-      <c r="F551" s="7"/>
-      <c r="H551" s="7"/>
+      <c r="F551" s="8"/>
+      <c r="H551" s="8"/>
     </row>
     <row r="552">
-      <c r="F552" s="7"/>
-      <c r="H552" s="7"/>
+      <c r="F552" s="8"/>
+      <c r="H552" s="8"/>
     </row>
     <row r="553">
-      <c r="F553" s="7"/>
-      <c r="H553" s="7"/>
+      <c r="F553" s="8"/>
+      <c r="H553" s="8"/>
     </row>
     <row r="554">
-      <c r="F554" s="7"/>
-      <c r="H554" s="7"/>
+      <c r="F554" s="8"/>
+      <c r="H554" s="8"/>
     </row>
     <row r="555">
-      <c r="F555" s="7"/>
-      <c r="H555" s="7"/>
+      <c r="F555" s="8"/>
+      <c r="H555" s="8"/>
     </row>
     <row r="556">
-      <c r="F556" s="7"/>
-      <c r="H556" s="7"/>
+      <c r="F556" s="8"/>
+      <c r="H556" s="8"/>
     </row>
     <row r="557">
-      <c r="F557" s="7"/>
-      <c r="H557" s="7"/>
+      <c r="F557" s="8"/>
+      <c r="H557" s="8"/>
     </row>
     <row r="558">
-      <c r="F558" s="7"/>
-      <c r="H558" s="7"/>
+      <c r="F558" s="8"/>
+      <c r="H558" s="8"/>
     </row>
     <row r="559">
-      <c r="F559" s="7"/>
-      <c r="H559" s="7"/>
+      <c r="F559" s="8"/>
+      <c r="H559" s="8"/>
     </row>
     <row r="560">
-      <c r="F560" s="7"/>
-      <c r="H560" s="7"/>
+      <c r="F560" s="8"/>
+      <c r="H560" s="8"/>
     </row>
     <row r="561">
-      <c r="F561" s="7"/>
-      <c r="H561" s="7"/>
+      <c r="F561" s="8"/>
+      <c r="H561" s="8"/>
     </row>
     <row r="562">
-      <c r="F562" s="7"/>
-      <c r="H562" s="7"/>
+      <c r="F562" s="8"/>
+      <c r="H562" s="8"/>
     </row>
     <row r="563">
-      <c r="F563" s="7"/>
-      <c r="H563" s="7"/>
+      <c r="F563" s="8"/>
+      <c r="H563" s="8"/>
     </row>
     <row r="564">
-      <c r="F564" s="7"/>
-      <c r="H564" s="7"/>
+      <c r="F564" s="8"/>
+      <c r="H564" s="8"/>
     </row>
     <row r="565">
-      <c r="F565" s="7"/>
-      <c r="H565" s="7"/>
+      <c r="F565" s="8"/>
+      <c r="H565" s="8"/>
     </row>
     <row r="566">
-      <c r="F566" s="7"/>
-      <c r="H566" s="7"/>
+      <c r="F566" s="8"/>
+      <c r="H566" s="8"/>
     </row>
     <row r="567">
-      <c r="F567" s="7"/>
-      <c r="H567" s="7"/>
+      <c r="F567" s="8"/>
+      <c r="H567" s="8"/>
     </row>
     <row r="568">
-      <c r="F568" s="7"/>
-      <c r="H568" s="7"/>
+      <c r="F568" s="8"/>
+      <c r="H568" s="8"/>
     </row>
     <row r="569">
-      <c r="F569" s="7"/>
-      <c r="H569" s="7"/>
+      <c r="F569" s="8"/>
+      <c r="H569" s="8"/>
     </row>
     <row r="570">
-      <c r="F570" s="7"/>
-      <c r="H570" s="7"/>
+      <c r="F570" s="8"/>
+      <c r="H570" s="8"/>
     </row>
     <row r="571">
-      <c r="F571" s="7"/>
-      <c r="H571" s="7"/>
+      <c r="F571" s="8"/>
+      <c r="H571" s="8"/>
     </row>
     <row r="572">
-      <c r="F572" s="7"/>
-      <c r="H572" s="7"/>
+      <c r="F572" s="8"/>
+      <c r="H572" s="8"/>
     </row>
     <row r="573">
-      <c r="F573" s="7"/>
-      <c r="H573" s="7"/>
+      <c r="F573" s="8"/>
+      <c r="H573" s="8"/>
     </row>
     <row r="574">
-      <c r="F574" s="7"/>
-      <c r="H574" s="7"/>
+      <c r="F574" s="8"/>
+      <c r="H574" s="8"/>
     </row>
     <row r="575">
-      <c r="F575" s="7"/>
-      <c r="H575" s="7"/>
+      <c r="F575" s="8"/>
+      <c r="H575" s="8"/>
     </row>
     <row r="576">
-      <c r="F576" s="7"/>
-      <c r="H576" s="7"/>
+      <c r="F576" s="8"/>
+      <c r="H576" s="8"/>
     </row>
     <row r="577">
-      <c r="F577" s="7"/>
-      <c r="H577" s="7"/>
+      <c r="F577" s="8"/>
+      <c r="H577" s="8"/>
     </row>
     <row r="578">
-      <c r="F578" s="7"/>
-      <c r="H578" s="7"/>
+      <c r="F578" s="8"/>
+      <c r="H578" s="8"/>
     </row>
     <row r="579">
-      <c r="F579" s="7"/>
-      <c r="H579" s="7"/>
+      <c r="F579" s="8"/>
+      <c r="H579" s="8"/>
     </row>
     <row r="580">
-      <c r="F580" s="7"/>
-      <c r="H580" s="7"/>
+      <c r="F580" s="8"/>
+      <c r="H580" s="8"/>
     </row>
     <row r="581">
-      <c r="F581" s="7"/>
-      <c r="H581" s="7"/>
+      <c r="F581" s="8"/>
+      <c r="H581" s="8"/>
     </row>
     <row r="582">
-      <c r="F582" s="7"/>
-      <c r="H582" s="7"/>
+      <c r="F582" s="8"/>
+      <c r="H582" s="8"/>
     </row>
     <row r="583">
-      <c r="F583" s="7"/>
-      <c r="H583" s="7"/>
+      <c r="F583" s="8"/>
+      <c r="H583" s="8"/>
     </row>
     <row r="584">
-      <c r="F584" s="7"/>
-      <c r="H584" s="7"/>
+      <c r="F584" s="8"/>
+      <c r="H584" s="8"/>
     </row>
     <row r="585">
-      <c r="F585" s="7"/>
-      <c r="H585" s="7"/>
+      <c r="F585" s="8"/>
+      <c r="H585" s="8"/>
     </row>
     <row r="586">
-      <c r="F586" s="7"/>
-      <c r="H586" s="7"/>
+      <c r="F586" s="8"/>
+      <c r="H586" s="8"/>
     </row>
     <row r="587">
-      <c r="F587" s="7"/>
-      <c r="H587" s="7"/>
+      <c r="F587" s="8"/>
+      <c r="H587" s="8"/>
     </row>
     <row r="588">
-      <c r="F588" s="7"/>
-      <c r="H588" s="7"/>
+      <c r="F588" s="8"/>
+      <c r="H588" s="8"/>
     </row>
     <row r="589">
-      <c r="F589" s="7"/>
-      <c r="H589" s="7"/>
+      <c r="F589" s="8"/>
+      <c r="H589" s="8"/>
     </row>
     <row r="590">
-      <c r="F590" s="7"/>
-      <c r="H590" s="7"/>
+      <c r="F590" s="8"/>
+      <c r="H590" s="8"/>
     </row>
     <row r="591">
-      <c r="F591" s="7"/>
-      <c r="H591" s="7"/>
+      <c r="F591" s="8"/>
+      <c r="H591" s="8"/>
     </row>
     <row r="592">
-      <c r="F592" s="7"/>
-      <c r="H592" s="7"/>
+      <c r="F592" s="8"/>
+      <c r="H592" s="8"/>
     </row>
     <row r="593">
-      <c r="F593" s="7"/>
-      <c r="H593" s="7"/>
+      <c r="F593" s="8"/>
+      <c r="H593" s="8"/>
     </row>
     <row r="594">
-      <c r="F594" s="7"/>
-      <c r="H594" s="7"/>
+      <c r="F594" s="8"/>
+      <c r="H594" s="8"/>
     </row>
     <row r="595">
-      <c r="F595" s="7"/>
-      <c r="H595" s="7"/>
+      <c r="F595" s="8"/>
+      <c r="H595" s="8"/>
     </row>
     <row r="596">
-      <c r="F596" s="7"/>
-      <c r="H596" s="7"/>
+      <c r="F596" s="8"/>
+      <c r="H596" s="8"/>
     </row>
     <row r="597">
-      <c r="F597" s="7"/>
-      <c r="H597" s="7"/>
+      <c r="F597" s="8"/>
+      <c r="H597" s="8"/>
     </row>
     <row r="598">
-      <c r="F598" s="7"/>
-      <c r="H598" s="7"/>
+      <c r="F598" s="8"/>
+      <c r="H598" s="8"/>
     </row>
     <row r="599">
-      <c r="F599" s="7"/>
-      <c r="H599" s="7"/>
+      <c r="F599" s="8"/>
+      <c r="H599" s="8"/>
     </row>
     <row r="600">
-      <c r="F600" s="7"/>
-      <c r="H600" s="7"/>
+      <c r="F600" s="8"/>
+      <c r="H600" s="8"/>
     </row>
     <row r="601">
-      <c r="F601" s="7"/>
-      <c r="H601" s="7"/>
+      <c r="F601" s="8"/>
+      <c r="H601" s="8"/>
     </row>
     <row r="602">
-      <c r="F602" s="7"/>
-      <c r="H602" s="7"/>
+      <c r="F602" s="8"/>
+      <c r="H602" s="8"/>
     </row>
     <row r="603">
-      <c r="F603" s="7"/>
-      <c r="H603" s="7"/>
+      <c r="F603" s="8"/>
+      <c r="H603" s="8"/>
     </row>
     <row r="604">
-      <c r="F604" s="7"/>
-      <c r="H604" s="7"/>
+      <c r="F604" s="8"/>
+      <c r="H604" s="8"/>
     </row>
     <row r="605">
-      <c r="F605" s="7"/>
-      <c r="H605" s="7"/>
+      <c r="F605" s="8"/>
+      <c r="H605" s="8"/>
     </row>
     <row r="606">
-      <c r="F606" s="7"/>
-      <c r="H606" s="7"/>
+      <c r="F606" s="8"/>
+      <c r="H606" s="8"/>
     </row>
     <row r="607">
-      <c r="F607" s="7"/>
-      <c r="H607" s="7"/>
+      <c r="F607" s="8"/>
+      <c r="H607" s="8"/>
     </row>
     <row r="608">
-      <c r="F608" s="7"/>
-      <c r="H608" s="7"/>
+      <c r="F608" s="8"/>
+      <c r="H608" s="8"/>
     </row>
     <row r="609">
-      <c r="F609" s="7"/>
-      <c r="H609" s="7"/>
+      <c r="F609" s="8"/>
+      <c r="H609" s="8"/>
     </row>
     <row r="610">
-      <c r="F610" s="7"/>
-      <c r="H610" s="7"/>
+      <c r="F610" s="8"/>
+      <c r="H610" s="8"/>
     </row>
     <row r="611">
-      <c r="F611" s="7"/>
-      <c r="H611" s="7"/>
+      <c r="F611" s="8"/>
+      <c r="H611" s="8"/>
     </row>
     <row r="612">
-      <c r="F612" s="7"/>
-      <c r="H612" s="7"/>
+      <c r="F612" s="8"/>
+      <c r="H612" s="8"/>
     </row>
     <row r="613">
-      <c r="F613" s="7"/>
-      <c r="H613" s="7"/>
+      <c r="F613" s="8"/>
+      <c r="H613" s="8"/>
     </row>
     <row r="614">
-      <c r="F614" s="7"/>
-      <c r="H614" s="7"/>
+      <c r="F614" s="8"/>
+      <c r="H614" s="8"/>
     </row>
     <row r="615">
-      <c r="F615" s="7"/>
-      <c r="H615" s="7"/>
+      <c r="F615" s="8"/>
+      <c r="H615" s="8"/>
     </row>
     <row r="616">
-      <c r="F616" s="7"/>
-      <c r="H616" s="7"/>
+      <c r="F616" s="8"/>
+      <c r="H616" s="8"/>
     </row>
     <row r="617">
-      <c r="F617" s="7"/>
-      <c r="H617" s="7"/>
+      <c r="F617" s="8"/>
+      <c r="H617" s="8"/>
     </row>
     <row r="618">
-      <c r="F618" s="7"/>
-      <c r="H618" s="7"/>
+      <c r="F618" s="8"/>
+      <c r="H618" s="8"/>
     </row>
     <row r="619">
-      <c r="F619" s="7"/>
-      <c r="H619" s="7"/>
+      <c r="F619" s="8"/>
+      <c r="H619" s="8"/>
     </row>
     <row r="620">
-      <c r="F620" s="7"/>
-      <c r="H620" s="7"/>
+      <c r="F620" s="8"/>
+      <c r="H620" s="8"/>
     </row>
     <row r="621">
-      <c r="F621" s="7"/>
-      <c r="H621" s="7"/>
+      <c r="F621" s="8"/>
+      <c r="H621" s="8"/>
     </row>
     <row r="622">
-      <c r="F622" s="7"/>
-      <c r="H622" s="7"/>
+      <c r="F622" s="8"/>
+      <c r="H622" s="8"/>
     </row>
     <row r="623">
-      <c r="F623" s="7"/>
-      <c r="H623" s="7"/>
+      <c r="F623" s="8"/>
+      <c r="H623" s="8"/>
     </row>
     <row r="624">
-      <c r="F624" s="7"/>
-      <c r="H624" s="7"/>
+      <c r="F624" s="8"/>
+      <c r="H624" s="8"/>
     </row>
     <row r="625">
-      <c r="F625" s="7"/>
-      <c r="H625" s="7"/>
+      <c r="F625" s="8"/>
+      <c r="H625" s="8"/>
     </row>
     <row r="626">
-      <c r="F626" s="7"/>
-      <c r="H626" s="7"/>
+      <c r="F626" s="8"/>
+      <c r="H626" s="8"/>
     </row>
     <row r="627">
-      <c r="F627" s="7"/>
-      <c r="H627" s="7"/>
+      <c r="F627" s="8"/>
+      <c r="H627" s="8"/>
     </row>
     <row r="628">
-      <c r="F628" s="7"/>
-      <c r="H628" s="7"/>
+      <c r="F628" s="8"/>
+      <c r="H628" s="8"/>
     </row>
     <row r="629">
-      <c r="F629" s="7"/>
-      <c r="H629" s="7"/>
+      <c r="F629" s="8"/>
+      <c r="H629" s="8"/>
     </row>
     <row r="630">
-      <c r="F630" s="7"/>
-      <c r="H630" s="7"/>
+      <c r="F630" s="8"/>
+      <c r="H630" s="8"/>
     </row>
     <row r="631">
-      <c r="F631" s="7"/>
-      <c r="H631" s="7"/>
+      <c r="F631" s="8"/>
+      <c r="H631" s="8"/>
     </row>
     <row r="632">
-      <c r="F632" s="7"/>
-      <c r="H632" s="7"/>
+      <c r="F632" s="8"/>
+      <c r="H632" s="8"/>
     </row>
     <row r="633">
-      <c r="F633" s="7"/>
-      <c r="H633" s="7"/>
+      <c r="F633" s="8"/>
+      <c r="H633" s="8"/>
     </row>
     <row r="634">
-      <c r="F634" s="7"/>
-      <c r="H634" s="7"/>
+      <c r="F634" s="8"/>
+      <c r="H634" s="8"/>
     </row>
     <row r="635">
-      <c r="F635" s="7"/>
-      <c r="H635" s="7"/>
+      <c r="F635" s="8"/>
+      <c r="H635" s="8"/>
     </row>
     <row r="636">
-      <c r="F636" s="7"/>
-      <c r="H636" s="7"/>
+      <c r="F636" s="8"/>
+      <c r="H636" s="8"/>
     </row>
     <row r="637">
-      <c r="F637" s="7"/>
-      <c r="H637" s="7"/>
+      <c r="F637" s="8"/>
+      <c r="H637" s="8"/>
     </row>
     <row r="638">
-      <c r="F638" s="7"/>
-      <c r="H638" s="7"/>
+      <c r="F638" s="8"/>
+      <c r="H638" s="8"/>
     </row>
     <row r="639">
-      <c r="F639" s="7"/>
-      <c r="H639" s="7"/>
+      <c r="F639" s="8"/>
+      <c r="H639" s="8"/>
     </row>
     <row r="640">
-      <c r="F640" s="7"/>
-      <c r="H640" s="7"/>
+      <c r="F640" s="8"/>
+      <c r="H640" s="8"/>
     </row>
     <row r="641">
-      <c r="F641" s="7"/>
-      <c r="H641" s="7"/>
+      <c r="F641" s="8"/>
+      <c r="H641" s="8"/>
     </row>
     <row r="642">
-      <c r="F642" s="7"/>
-      <c r="H642" s="7"/>
+      <c r="F642" s="8"/>
+      <c r="H642" s="8"/>
     </row>
     <row r="643">
-      <c r="F643" s="7"/>
-      <c r="H643" s="7"/>
+      <c r="F643" s="8"/>
+      <c r="H643" s="8"/>
     </row>
     <row r="644">
-      <c r="F644" s="7"/>
-      <c r="H644" s="7"/>
+      <c r="F644" s="8"/>
+      <c r="H644" s="8"/>
     </row>
     <row r="645">
-      <c r="F645" s="7"/>
-      <c r="H645" s="7"/>
+      <c r="F645" s="8"/>
+      <c r="H645" s="8"/>
     </row>
     <row r="646">
-      <c r="F646" s="7"/>
-      <c r="H646" s="7"/>
+      <c r="F646" s="8"/>
+      <c r="H646" s="8"/>
     </row>
     <row r="647">
-      <c r="F647" s="7"/>
-      <c r="H647" s="7"/>
+      <c r="F647" s="8"/>
+      <c r="H647" s="8"/>
     </row>
     <row r="648">
-      <c r="F648" s="7"/>
-      <c r="H648" s="7"/>
+      <c r="F648" s="8"/>
+      <c r="H648" s="8"/>
     </row>
     <row r="649">
-      <c r="F649" s="7"/>
-      <c r="H649" s="7"/>
+      <c r="F649" s="8"/>
+      <c r="H649" s="8"/>
     </row>
     <row r="650">
-      <c r="F650" s="7"/>
-      <c r="H650" s="7"/>
+      <c r="F650" s="8"/>
+      <c r="H650" s="8"/>
     </row>
     <row r="651">
-      <c r="F651" s="7"/>
-      <c r="H651" s="7"/>
+      <c r="F651" s="8"/>
+      <c r="H651" s="8"/>
     </row>
     <row r="652">
-      <c r="F652" s="7"/>
-      <c r="H652" s="7"/>
+      <c r="F652" s="8"/>
+      <c r="H652" s="8"/>
     </row>
     <row r="653">
-      <c r="F653" s="7"/>
-      <c r="H653" s="7"/>
+      <c r="F653" s="8"/>
+      <c r="H653" s="8"/>
     </row>
     <row r="654">
-      <c r="F654" s="7"/>
-      <c r="H654" s="7"/>
+      <c r="F654" s="8"/>
+      <c r="H654" s="8"/>
     </row>
     <row r="655">
-      <c r="F655" s="7"/>
-      <c r="H655" s="7"/>
+      <c r="F655" s="8"/>
+      <c r="H655" s="8"/>
     </row>
     <row r="656">
-      <c r="F656" s="7"/>
-      <c r="H656" s="7"/>
+      <c r="F656" s="8"/>
+      <c r="H656" s="8"/>
     </row>
     <row r="657">
-      <c r="F657" s="7"/>
-      <c r="H657" s="7"/>
+      <c r="F657" s="8"/>
+      <c r="H657" s="8"/>
     </row>
     <row r="658">
-      <c r="F658" s="7"/>
-      <c r="H658" s="7"/>
+      <c r="F658" s="8"/>
+      <c r="H658" s="8"/>
     </row>
     <row r="659">
-      <c r="F659" s="7"/>
-      <c r="H659" s="7"/>
+      <c r="F659" s="8"/>
+      <c r="H659" s="8"/>
     </row>
     <row r="660">
-      <c r="F660" s="7"/>
-      <c r="H660" s="7"/>
+      <c r="F660" s="8"/>
+      <c r="H660" s="8"/>
     </row>
     <row r="661">
-      <c r="F661" s="7"/>
-      <c r="H661" s="7"/>
+      <c r="F661" s="8"/>
+      <c r="H661" s="8"/>
     </row>
     <row r="662">
-      <c r="F662" s="7"/>
-      <c r="H662" s="7"/>
+      <c r="F662" s="8"/>
+      <c r="H662" s="8"/>
     </row>
     <row r="663">
-      <c r="F663" s="7"/>
-      <c r="H663" s="7"/>
+      <c r="F663" s="8"/>
+      <c r="H663" s="8"/>
     </row>
     <row r="664">
-      <c r="F664" s="7"/>
-      <c r="H664" s="7"/>
+      <c r="F664" s="8"/>
+      <c r="H664" s="8"/>
     </row>
     <row r="665">
-      <c r="F665" s="7"/>
-      <c r="H665" s="7"/>
+      <c r="F665" s="8"/>
+      <c r="H665" s="8"/>
     </row>
     <row r="666">
-      <c r="F666" s="7"/>
-      <c r="H666" s="7"/>
+      <c r="F666" s="8"/>
+      <c r="H666" s="8"/>
     </row>
     <row r="667">
-      <c r="F667" s="7"/>
-      <c r="H667" s="7"/>
+      <c r="F667" s="8"/>
+      <c r="H667" s="8"/>
     </row>
     <row r="668">
-      <c r="F668" s="7"/>
-      <c r="H668" s="7"/>
+      <c r="F668" s="8"/>
+      <c r="H668" s="8"/>
     </row>
     <row r="669">
-      <c r="F669" s="7"/>
-      <c r="H669" s="7"/>
+      <c r="F669" s="8"/>
+      <c r="H669" s="8"/>
     </row>
     <row r="670">
-      <c r="F670" s="7"/>
-      <c r="H670" s="7"/>
+      <c r="F670" s="8"/>
+      <c r="H670" s="8"/>
     </row>
     <row r="671">
-      <c r="F671" s="7"/>
-      <c r="H671" s="7"/>
+      <c r="F671" s="8"/>
+      <c r="H671" s="8"/>
     </row>
     <row r="672">
-      <c r="F672" s="7"/>
-      <c r="H672" s="7"/>
+      <c r="F672" s="8"/>
+      <c r="H672" s="8"/>
     </row>
     <row r="673">
-      <c r="F673" s="7"/>
-      <c r="H673" s="7"/>
+      <c r="F673" s="8"/>
+      <c r="H673" s="8"/>
     </row>
     <row r="674">
-      <c r="F674" s="7"/>
-      <c r="H674" s="7"/>
+      <c r="F674" s="8"/>
+      <c r="H674" s="8"/>
     </row>
     <row r="675">
-      <c r="F675" s="7"/>
-      <c r="H675" s="7"/>
+      <c r="F675" s="8"/>
+      <c r="H675" s="8"/>
     </row>
     <row r="676">
-      <c r="F676" s="7"/>
-      <c r="H676" s="7"/>
+      <c r="F676" s="8"/>
+      <c r="H676" s="8"/>
     </row>
     <row r="677">
-      <c r="F677" s="7"/>
-      <c r="H677" s="7"/>
+      <c r="F677" s="8"/>
+      <c r="H677" s="8"/>
     </row>
     <row r="678">
-      <c r="F678" s="7"/>
-      <c r="H678" s="7"/>
+      <c r="F678" s="8"/>
+      <c r="H678" s="8"/>
     </row>
     <row r="679">
-      <c r="F679" s="7"/>
-      <c r="H679" s="7"/>
+      <c r="F679" s="8"/>
+      <c r="H679" s="8"/>
     </row>
     <row r="680">
-      <c r="F680" s="7"/>
-      <c r="H680" s="7"/>
+      <c r="F680" s="8"/>
+      <c r="H680" s="8"/>
     </row>
     <row r="681">
-      <c r="F681" s="7"/>
-      <c r="H681" s="7"/>
+      <c r="F681" s="8"/>
+      <c r="H681" s="8"/>
     </row>
     <row r="682">
-      <c r="F682" s="7"/>
-      <c r="H682" s="7"/>
+      <c r="F682" s="8"/>
+      <c r="H682" s="8"/>
     </row>
     <row r="683">
-      <c r="F683" s="7"/>
-      <c r="H683" s="7"/>
+      <c r="F683" s="8"/>
+      <c r="H683" s="8"/>
     </row>
     <row r="684">
-      <c r="F684" s="7"/>
-      <c r="H684" s="7"/>
+      <c r="F684" s="8"/>
+      <c r="H684" s="8"/>
     </row>
     <row r="685">
-      <c r="F685" s="7"/>
-      <c r="H685" s="7"/>
+      <c r="F685" s="8"/>
+      <c r="H685" s="8"/>
     </row>
     <row r="686">
-      <c r="F686" s="7"/>
-      <c r="H686" s="7"/>
+      <c r="F686" s="8"/>
+      <c r="H686" s="8"/>
     </row>
     <row r="687">
-      <c r="F687" s="7"/>
-      <c r="H687" s="7"/>
+      <c r="F687" s="8"/>
+      <c r="H687" s="8"/>
     </row>
     <row r="688">
-      <c r="F688" s="7"/>
-      <c r="H688" s="7"/>
+      <c r="F688" s="8"/>
+      <c r="H688" s="8"/>
     </row>
     <row r="689">
-      <c r="F689" s="7"/>
-      <c r="H689" s="7"/>
+      <c r="F689" s="8"/>
+      <c r="H689" s="8"/>
     </row>
     <row r="690">
-      <c r="F690" s="7"/>
-      <c r="H690" s="7"/>
+      <c r="F690" s="8"/>
+      <c r="H690" s="8"/>
     </row>
     <row r="691">
-      <c r="F691" s="7"/>
-      <c r="H691" s="7"/>
+      <c r="F691" s="8"/>
+      <c r="H691" s="8"/>
     </row>
     <row r="692">
-      <c r="F692" s="7"/>
-      <c r="H692" s="7"/>
+      <c r="F692" s="8"/>
+      <c r="H692" s="8"/>
     </row>
     <row r="693">
-      <c r="F693" s="7"/>
-      <c r="H693" s="7"/>
+      <c r="F693" s="8"/>
+      <c r="H693" s="8"/>
     </row>
     <row r="694">
-      <c r="F694" s="7"/>
-      <c r="H694" s="7"/>
+      <c r="F694" s="8"/>
+      <c r="H694" s="8"/>
     </row>
     <row r="695">
-      <c r="F695" s="7"/>
-      <c r="H695" s="7"/>
+      <c r="F695" s="8"/>
+      <c r="H695" s="8"/>
     </row>
     <row r="696">
-      <c r="F696" s="7"/>
-      <c r="H696" s="7"/>
+      <c r="F696" s="8"/>
+      <c r="H696" s="8"/>
     </row>
     <row r="697">
-      <c r="F697" s="7"/>
-      <c r="H697" s="7"/>
+      <c r="F697" s="8"/>
+      <c r="H697" s="8"/>
     </row>
     <row r="698">
-      <c r="F698" s="7"/>
-      <c r="H698" s="7"/>
+      <c r="F698" s="8"/>
+      <c r="H698" s="8"/>
     </row>
     <row r="699">
-      <c r="F699" s="7"/>
-      <c r="H699" s="7"/>
+      <c r="F699" s="8"/>
+      <c r="H699" s="8"/>
     </row>
     <row r="700">
-      <c r="F700" s="7"/>
-      <c r="H700" s="7"/>
+      <c r="F700" s="8"/>
+      <c r="H700" s="8"/>
     </row>
     <row r="701">
-      <c r="F701" s="7"/>
-      <c r="H701" s="7"/>
+      <c r="F701" s="8"/>
+      <c r="H701" s="8"/>
     </row>
     <row r="702">
-      <c r="F702" s="7"/>
-      <c r="H702" s="7"/>
+      <c r="F702" s="8"/>
+      <c r="H702" s="8"/>
     </row>
     <row r="703">
-      <c r="F703" s="7"/>
-      <c r="H703" s="7"/>
+      <c r="F703" s="8"/>
+      <c r="H703" s="8"/>
     </row>
     <row r="704">
-      <c r="F704" s="7"/>
-      <c r="H704" s="7"/>
+      <c r="F704" s="8"/>
+      <c r="H704" s="8"/>
     </row>
     <row r="705">
-      <c r="F705" s="7"/>
-      <c r="H705" s="7"/>
+      <c r="F705" s="8"/>
+      <c r="H705" s="8"/>
     </row>
     <row r="706">
-      <c r="F706" s="7"/>
-      <c r="H706" s="7"/>
+      <c r="F706" s="8"/>
+      <c r="H706" s="8"/>
     </row>
     <row r="707">
-      <c r="F707" s="7"/>
-      <c r="H707" s="7"/>
+      <c r="F707" s="8"/>
+      <c r="H707" s="8"/>
     </row>
     <row r="708">
-      <c r="F708" s="7"/>
-      <c r="H708" s="7"/>
+      <c r="F708" s="8"/>
+      <c r="H708" s="8"/>
     </row>
     <row r="709">
-      <c r="F709" s="7"/>
-      <c r="H709" s="7"/>
+      <c r="F709" s="8"/>
+      <c r="H709" s="8"/>
     </row>
     <row r="710">
-      <c r="F710" s="7"/>
-      <c r="H710" s="7"/>
+      <c r="F710" s="8"/>
+      <c r="H710" s="8"/>
     </row>
     <row r="711">
-      <c r="F711" s="7"/>
-      <c r="H711" s="7"/>
+      <c r="F711" s="8"/>
+      <c r="H711" s="8"/>
     </row>
     <row r="712">
-      <c r="F712" s="7"/>
-      <c r="H712" s="7"/>
+      <c r="F712" s="8"/>
+      <c r="H712" s="8"/>
     </row>
     <row r="713">
-      <c r="F713" s="7"/>
-      <c r="H713" s="7"/>
+      <c r="F713" s="8"/>
+      <c r="H713" s="8"/>
     </row>
     <row r="714">
-      <c r="F714" s="7"/>
-      <c r="H714" s="7"/>
+      <c r="F714" s="8"/>
+      <c r="H714" s="8"/>
     </row>
     <row r="715">
-      <c r="F715" s="7"/>
-      <c r="H715" s="7"/>
+      <c r="F715" s="8"/>
+      <c r="H715" s="8"/>
     </row>
     <row r="716">
-      <c r="F716" s="7"/>
-      <c r="H716" s="7"/>
+      <c r="F716" s="8"/>
+      <c r="H716" s="8"/>
     </row>
     <row r="717">
-      <c r="F717" s="7"/>
-      <c r="H717" s="7"/>
+      <c r="F717" s="8"/>
+      <c r="H717" s="8"/>
     </row>
     <row r="718">
-      <c r="F718" s="7"/>
-      <c r="H718" s="7"/>
+      <c r="F718" s="8"/>
+      <c r="H718" s="8"/>
     </row>
     <row r="719">
-      <c r="F719" s="7"/>
-      <c r="H719" s="7"/>
+      <c r="F719" s="8"/>
+      <c r="H719" s="8"/>
     </row>
     <row r="720">
-      <c r="F720" s="7"/>
-      <c r="H720" s="7"/>
+      <c r="F720" s="8"/>
+      <c r="H720" s="8"/>
     </row>
     <row r="721">
-      <c r="F721" s="7"/>
-      <c r="H721" s="7"/>
+      <c r="F721" s="8"/>
+      <c r="H721" s="8"/>
     </row>
     <row r="722">
-      <c r="F722" s="7"/>
-      <c r="H722" s="7"/>
+      <c r="F722" s="8"/>
+      <c r="H722" s="8"/>
     </row>
     <row r="723">
-      <c r="F723" s="7"/>
-      <c r="H723" s="7"/>
+      <c r="F723" s="8"/>
+      <c r="H723" s="8"/>
     </row>
     <row r="724">
-      <c r="F724" s="7"/>
-      <c r="H724" s="7"/>
+      <c r="F724" s="8"/>
+      <c r="H724" s="8"/>
     </row>
     <row r="725">
-      <c r="F725" s="7"/>
-      <c r="H725" s="7"/>
+      <c r="F725" s="8"/>
+      <c r="H725" s="8"/>
     </row>
     <row r="726">
-      <c r="F726" s="7"/>
-      <c r="H726" s="7"/>
+      <c r="F726" s="8"/>
+      <c r="H726" s="8"/>
     </row>
     <row r="727">
-      <c r="F727" s="7"/>
-      <c r="H727" s="7"/>
+      <c r="F727" s="8"/>
+      <c r="H727" s="8"/>
     </row>
     <row r="728">
-      <c r="F728" s="7"/>
-      <c r="H728" s="7"/>
+      <c r="F728" s="8"/>
+      <c r="H728" s="8"/>
     </row>
     <row r="729">
-      <c r="F729" s="7"/>
-      <c r="H729" s="7"/>
+      <c r="F729" s="8"/>
+      <c r="H729" s="8"/>
     </row>
     <row r="730">
-      <c r="F730" s="7"/>
-      <c r="H730" s="7"/>
+      <c r="F730" s="8"/>
+      <c r="H730" s="8"/>
     </row>
     <row r="731">
-      <c r="F731" s="7"/>
-      <c r="H731" s="7"/>
+      <c r="F731" s="8"/>
+      <c r="H731" s="8"/>
     </row>
     <row r="732">
-      <c r="F732" s="7"/>
-      <c r="H732" s="7"/>
+      <c r="F732" s="8"/>
+      <c r="H732" s="8"/>
     </row>
     <row r="733">
-      <c r="F733" s="7"/>
-      <c r="H733" s="7"/>
+      <c r="F733" s="8"/>
+      <c r="H733" s="8"/>
     </row>
     <row r="734">
-      <c r="F734" s="7"/>
-      <c r="H734" s="7"/>
+      <c r="F734" s="8"/>
+      <c r="H734" s="8"/>
     </row>
     <row r="735">
-      <c r="F735" s="7"/>
-      <c r="H735" s="7"/>
+      <c r="F735" s="8"/>
+      <c r="H735" s="8"/>
     </row>
     <row r="736">
-      <c r="F736" s="7"/>
-      <c r="H736" s="7"/>
+      <c r="F736" s="8"/>
+      <c r="H736" s="8"/>
     </row>
     <row r="737">
-      <c r="F737" s="7"/>
-      <c r="H737" s="7"/>
+      <c r="F737" s="8"/>
+      <c r="H737" s="8"/>
     </row>
     <row r="738">
-      <c r="F738" s="7"/>
-      <c r="H738" s="7"/>
+      <c r="F738" s="8"/>
+      <c r="H738" s="8"/>
     </row>
     <row r="739">
-      <c r="F739" s="7"/>
-      <c r="H739" s="7"/>
+      <c r="F739" s="8"/>
+      <c r="H739" s="8"/>
     </row>
     <row r="740">
-      <c r="F740" s="7"/>
-      <c r="H740" s="7"/>
+      <c r="F740" s="8"/>
+      <c r="H740" s="8"/>
     </row>
     <row r="741">
-      <c r="F741" s="7"/>
-      <c r="H741" s="7"/>
+      <c r="F741" s="8"/>
+      <c r="H741" s="8"/>
     </row>
     <row r="742">
-      <c r="F742" s="7"/>
-      <c r="H742" s="7"/>
+      <c r="F742" s="8"/>
+      <c r="H742" s="8"/>
     </row>
     <row r="743">
-      <c r="F743" s="7"/>
-      <c r="H743" s="7"/>
+      <c r="F743" s="8"/>
+      <c r="H743" s="8"/>
     </row>
     <row r="744">
-      <c r="F744" s="7"/>
-      <c r="H744" s="7"/>
+      <c r="F744" s="8"/>
+      <c r="H744" s="8"/>
     </row>
     <row r="745">
-      <c r="F745" s="7"/>
-      <c r="H745" s="7"/>
+      <c r="F745" s="8"/>
+      <c r="H745" s="8"/>
     </row>
     <row r="746">
-      <c r="F746" s="7"/>
-      <c r="H746" s="7"/>
+      <c r="F746" s="8"/>
+      <c r="H746" s="8"/>
     </row>
     <row r="747">
-      <c r="F747" s="7"/>
-      <c r="H747" s="7"/>
+      <c r="F747" s="8"/>
+      <c r="H747" s="8"/>
     </row>
     <row r="748">
-      <c r="F748" s="7"/>
-      <c r="H748" s="7"/>
+      <c r="F748" s="8"/>
+      <c r="H748" s="8"/>
     </row>
     <row r="749">
-      <c r="F749" s="7"/>
-      <c r="H749" s="7"/>
+      <c r="F749" s="8"/>
+      <c r="H749" s="8"/>
     </row>
     <row r="750">
-      <c r="F750" s="7"/>
-      <c r="H750" s="7"/>
+      <c r="F750" s="8"/>
+      <c r="H750" s="8"/>
     </row>
     <row r="751">
-      <c r="F751" s="7"/>
-      <c r="H751" s="7"/>
+      <c r="F751" s="8"/>
+      <c r="H751" s="8"/>
     </row>
     <row r="752">
-      <c r="F752" s="7"/>
-      <c r="H752" s="7"/>
+      <c r="F752" s="8"/>
+      <c r="H752" s="8"/>
     </row>
     <row r="753">
-      <c r="F753" s="7"/>
-      <c r="H753" s="7"/>
+      <c r="F753" s="8"/>
+      <c r="H753" s="8"/>
     </row>
     <row r="754">
-      <c r="F754" s="7"/>
-      <c r="H754" s="7"/>
+      <c r="F754" s="8"/>
+      <c r="H754" s="8"/>
     </row>
     <row r="755">
-      <c r="F755" s="7"/>
-      <c r="H755" s="7"/>
+      <c r="F755" s="8"/>
+      <c r="H755" s="8"/>
     </row>
     <row r="756">
-      <c r="F756" s="7"/>
-      <c r="H756" s="7"/>
+      <c r="F756" s="8"/>
+      <c r="H756" s="8"/>
     </row>
     <row r="757">
-      <c r="F757" s="7"/>
-      <c r="H757" s="7"/>
+      <c r="F757" s="8"/>
+      <c r="H757" s="8"/>
     </row>
     <row r="758">
-      <c r="F758" s="7"/>
-      <c r="H758" s="7"/>
+      <c r="F758" s="8"/>
+      <c r="H758" s="8"/>
     </row>
     <row r="759">
-      <c r="F759" s="7"/>
-      <c r="H759" s="7"/>
+      <c r="F759" s="8"/>
+      <c r="H759" s="8"/>
     </row>
     <row r="760">
-      <c r="F760" s="7"/>
-      <c r="H760" s="7"/>
+      <c r="F760" s="8"/>
+      <c r="H760" s="8"/>
     </row>
     <row r="761">
-      <c r="F761" s="7"/>
-      <c r="H761" s="7"/>
+      <c r="F761" s="8"/>
+      <c r="H761" s="8"/>
     </row>
     <row r="762">
-      <c r="F762" s="7"/>
-      <c r="H762" s="7"/>
+      <c r="F762" s="8"/>
+      <c r="H762" s="8"/>
     </row>
     <row r="763">
-      <c r="F763" s="7"/>
-      <c r="H763" s="7"/>
+      <c r="F763" s="8"/>
+      <c r="H763" s="8"/>
     </row>
     <row r="764">
-      <c r="F764" s="7"/>
-      <c r="H764" s="7"/>
+      <c r="F764" s="8"/>
+      <c r="H764" s="8"/>
     </row>
     <row r="765">
-      <c r="F765" s="7"/>
-      <c r="H765" s="7"/>
+      <c r="F765" s="8"/>
+      <c r="H765" s="8"/>
     </row>
     <row r="766">
-      <c r="F766" s="7"/>
-      <c r="H766" s="7"/>
+      <c r="F766" s="8"/>
+      <c r="H766" s="8"/>
     </row>
     <row r="767">
-      <c r="F767" s="7"/>
-      <c r="H767" s="7"/>
+      <c r="F767" s="8"/>
+      <c r="H767" s="8"/>
     </row>
     <row r="768">
-      <c r="F768" s="7"/>
-      <c r="H768" s="7"/>
+      <c r="F768" s="8"/>
+      <c r="H768" s="8"/>
     </row>
     <row r="769">
-      <c r="F769" s="7"/>
-      <c r="H769" s="7"/>
+      <c r="F769" s="8"/>
+      <c r="H769" s="8"/>
     </row>
     <row r="770">
-      <c r="F770" s="7"/>
-      <c r="H770" s="7"/>
+      <c r="F770" s="8"/>
+      <c r="H770" s="8"/>
     </row>
     <row r="771">
-      <c r="F771" s="7"/>
-      <c r="H771" s="7"/>
+      <c r="F771" s="8"/>
+      <c r="H771" s="8"/>
     </row>
     <row r="772">
-      <c r="F772" s="7"/>
-      <c r="H772" s="7"/>
+      <c r="F772" s="8"/>
+      <c r="H772" s="8"/>
     </row>
     <row r="773">
-      <c r="F773" s="7"/>
-      <c r="H773" s="7"/>
+      <c r="F773" s="8"/>
+      <c r="H773" s="8"/>
     </row>
     <row r="774">
-      <c r="F774" s="7"/>
-      <c r="H774" s="7"/>
+      <c r="F774" s="8"/>
+      <c r="H774" s="8"/>
     </row>
     <row r="775">
-      <c r="F775" s="7"/>
-      <c r="H775" s="7"/>
+      <c r="F775" s="8"/>
+      <c r="H775" s="8"/>
     </row>
     <row r="776">
-      <c r="F776" s="7"/>
-      <c r="H776" s="7"/>
+      <c r="F776" s="8"/>
+      <c r="H776" s="8"/>
     </row>
     <row r="777">
-      <c r="F777" s="7"/>
-      <c r="H777" s="7"/>
+      <c r="F777" s="8"/>
+      <c r="H777" s="8"/>
     </row>
     <row r="778">
-      <c r="F778" s="7"/>
-      <c r="H778" s="7"/>
+      <c r="F778" s="8"/>
+      <c r="H778" s="8"/>
     </row>
     <row r="779">
-      <c r="F779" s="7"/>
-      <c r="H779" s="7"/>
+      <c r="F779" s="8"/>
+      <c r="H779" s="8"/>
     </row>
     <row r="780">
-      <c r="F780" s="7"/>
-      <c r="H780" s="7"/>
+      <c r="F780" s="8"/>
+      <c r="H780" s="8"/>
     </row>
     <row r="781">
-      <c r="F781" s="7"/>
-      <c r="H781" s="7"/>
+      <c r="F781" s="8"/>
+      <c r="H781" s="8"/>
     </row>
     <row r="782">
-      <c r="F782" s="7"/>
-      <c r="H782" s="7"/>
+      <c r="F782" s="8"/>
+      <c r="H782" s="8"/>
     </row>
     <row r="783">
-      <c r="F783" s="7"/>
-      <c r="H783" s="7"/>
+      <c r="F783" s="8"/>
+      <c r="H783" s="8"/>
     </row>
     <row r="784">
-      <c r="F784" s="7"/>
-      <c r="H784" s="7"/>
+      <c r="F784" s="8"/>
+      <c r="H784" s="8"/>
     </row>
     <row r="785">
-      <c r="F785" s="7"/>
-      <c r="H785" s="7"/>
+      <c r="F785" s="8"/>
+      <c r="H785" s="8"/>
     </row>
     <row r="786">
-      <c r="F786" s="7"/>
-      <c r="H786" s="7"/>
+      <c r="F786" s="8"/>
+      <c r="H786" s="8"/>
     </row>
     <row r="787">
-      <c r="F787" s="7"/>
-      <c r="H787" s="7"/>
+      <c r="F787" s="8"/>
+      <c r="H787" s="8"/>
     </row>
     <row r="788">
-      <c r="F788" s="7"/>
-      <c r="H788" s="7"/>
+      <c r="F788" s="8"/>
+      <c r="H788" s="8"/>
     </row>
     <row r="789">
-      <c r="F789" s="7"/>
-      <c r="H789" s="7"/>
+      <c r="F789" s="8"/>
+      <c r="H789" s="8"/>
     </row>
     <row r="790">
-      <c r="F790" s="7"/>
-      <c r="H790" s="7"/>
+      <c r="F790" s="8"/>
+      <c r="H790" s="8"/>
     </row>
     <row r="791">
-      <c r="F791" s="7"/>
-      <c r="H791" s="7"/>
+      <c r="F791" s="8"/>
+      <c r="H791" s="8"/>
     </row>
     <row r="792">
-      <c r="F792" s="7"/>
-      <c r="H792" s="7"/>
+      <c r="F792" s="8"/>
+      <c r="H792" s="8"/>
     </row>
     <row r="793">
-      <c r="F793" s="7"/>
-      <c r="H793" s="7"/>
+      <c r="F793" s="8"/>
+      <c r="H793" s="8"/>
     </row>
     <row r="794">
-      <c r="F794" s="7"/>
-      <c r="H794" s="7"/>
+      <c r="F794" s="8"/>
+      <c r="H794" s="8"/>
     </row>
     <row r="795">
-      <c r="F795" s="7"/>
-      <c r="H795" s="7"/>
+      <c r="F795" s="8"/>
+      <c r="H795" s="8"/>
     </row>
     <row r="796">
-      <c r="F796" s="7"/>
-      <c r="H796" s="7"/>
+      <c r="F796" s="8"/>
+      <c r="H796" s="8"/>
     </row>
     <row r="797">
-      <c r="F797" s="7"/>
-      <c r="H797" s="7"/>
+      <c r="F797" s="8"/>
+      <c r="H797" s="8"/>
     </row>
     <row r="798">
-      <c r="F798" s="7"/>
-      <c r="H798" s="7"/>
+      <c r="F798" s="8"/>
+      <c r="H798" s="8"/>
     </row>
     <row r="799">
-      <c r="F799" s="7"/>
-      <c r="H799" s="7"/>
+      <c r="F799" s="8"/>
+      <c r="H799" s="8"/>
     </row>
     <row r="800">
-      <c r="F800" s="7"/>
-      <c r="H800" s="7"/>
+      <c r="F800" s="8"/>
+      <c r="H800" s="8"/>
     </row>
     <row r="801">
-      <c r="F801" s="7"/>
-      <c r="H801" s="7"/>
+      <c r="F801" s="8"/>
+      <c r="H801" s="8"/>
     </row>
     <row r="802">
-      <c r="F802" s="7"/>
-      <c r="H802" s="7"/>
+      <c r="F802" s="8"/>
+      <c r="H802" s="8"/>
     </row>
     <row r="803">
-      <c r="F803" s="7"/>
-      <c r="H803" s="7"/>
+      <c r="F803" s="8"/>
+      <c r="H803" s="8"/>
     </row>
     <row r="804">
-      <c r="F804" s="7"/>
-      <c r="H804" s="7"/>
+      <c r="F804" s="8"/>
+      <c r="H804" s="8"/>
     </row>
     <row r="805">
-      <c r="F805" s="7"/>
-      <c r="H805" s="7"/>
+      <c r="F805" s="8"/>
+      <c r="H805" s="8"/>
     </row>
     <row r="806">
-      <c r="F806" s="7"/>
-      <c r="H806" s="7"/>
+      <c r="F806" s="8"/>
+      <c r="H806" s="8"/>
     </row>
     <row r="807">
-      <c r="F807" s="7"/>
-      <c r="H807" s="7"/>
+      <c r="F807" s="8"/>
+      <c r="H807" s="8"/>
     </row>
     <row r="808">
-      <c r="F808" s="7"/>
-      <c r="H808" s="7"/>
+      <c r="F808" s="8"/>
+      <c r="H808" s="8"/>
     </row>
     <row r="809">
-      <c r="F809" s="7"/>
-      <c r="H809" s="7"/>
+      <c r="F809" s="8"/>
+      <c r="H809" s="8"/>
     </row>
     <row r="810">
-      <c r="F810" s="7"/>
-      <c r="H810" s="7"/>
+      <c r="F810" s="8"/>
+      <c r="H810" s="8"/>
     </row>
     <row r="811">
-      <c r="F811" s="7"/>
-      <c r="H811" s="7"/>
+      <c r="F811" s="8"/>
+      <c r="H811" s="8"/>
     </row>
     <row r="812">
-      <c r="F812" s="7"/>
-      <c r="H812" s="7"/>
+      <c r="F812" s="8"/>
+      <c r="H812" s="8"/>
     </row>
     <row r="813">
-      <c r="F813" s="7"/>
-      <c r="H813" s="7"/>
+      <c r="F813" s="8"/>
+      <c r="H813" s="8"/>
     </row>
     <row r="814">
-      <c r="F814" s="7"/>
-      <c r="H814" s="7"/>
+      <c r="F814" s="8"/>
+      <c r="H814" s="8"/>
     </row>
     <row r="815">
-      <c r="F815" s="7"/>
-      <c r="H815" s="7"/>
+      <c r="F815" s="8"/>
+      <c r="H815" s="8"/>
     </row>
     <row r="816">
-      <c r="F816" s="7"/>
-      <c r="H816" s="7"/>
+      <c r="F816" s="8"/>
+      <c r="H816" s="8"/>
     </row>
     <row r="817">
-      <c r="F817" s="7"/>
-      <c r="H817" s="7"/>
+      <c r="F817" s="8"/>
+      <c r="H817" s="8"/>
     </row>
     <row r="818">
-      <c r="F818" s="7"/>
-      <c r="H818" s="7"/>
+      <c r="F818" s="8"/>
+      <c r="H818" s="8"/>
     </row>
     <row r="819">
-      <c r="F819" s="7"/>
-      <c r="H819" s="7"/>
+      <c r="F819" s="8"/>
+      <c r="H819" s="8"/>
     </row>
     <row r="820">
-      <c r="F820" s="7"/>
-      <c r="H820" s="7"/>
+      <c r="F820" s="8"/>
+      <c r="H820" s="8"/>
     </row>
     <row r="821">
-      <c r="F821" s="7"/>
-      <c r="H821" s="7"/>
+      <c r="F821" s="8"/>
+      <c r="H821" s="8"/>
     </row>
     <row r="822">
-      <c r="F822" s="7"/>
-      <c r="H822" s="7"/>
+      <c r="F822" s="8"/>
+      <c r="H822" s="8"/>
     </row>
     <row r="823">
-      <c r="F823" s="7"/>
-      <c r="H823" s="7"/>
+      <c r="F823" s="8"/>
+      <c r="H823" s="8"/>
     </row>
     <row r="824">
-      <c r="F824" s="7"/>
-      <c r="H824" s="7"/>
+      <c r="F824" s="8"/>
+      <c r="H824" s="8"/>
     </row>
     <row r="825">
-      <c r="F825" s="7"/>
-      <c r="H825" s="7"/>
+      <c r="F825" s="8"/>
+      <c r="H825" s="8"/>
     </row>
     <row r="826">
-      <c r="F826" s="7"/>
-      <c r="H826" s="7"/>
+      <c r="F826" s="8"/>
+      <c r="H826" s="8"/>
     </row>
     <row r="827">
-      <c r="F827" s="7"/>
-      <c r="H827" s="7"/>
+      <c r="F827" s="8"/>
+      <c r="H827" s="8"/>
     </row>
     <row r="828">
-      <c r="F828" s="7"/>
-      <c r="H828" s="7"/>
+      <c r="F828" s="8"/>
+      <c r="H828" s="8"/>
     </row>
     <row r="829">
-      <c r="F829" s="7"/>
-      <c r="H829" s="7"/>
+      <c r="F829" s="8"/>
+      <c r="H829" s="8"/>
     </row>
     <row r="830">
-      <c r="F830" s="7"/>
-      <c r="H830" s="7"/>
+      <c r="F830" s="8"/>
+      <c r="H830" s="8"/>
     </row>
     <row r="831">
-      <c r="F831" s="7"/>
-      <c r="H831" s="7"/>
+      <c r="F831" s="8"/>
+      <c r="H831" s="8"/>
     </row>
     <row r="832">
-      <c r="F832" s="7"/>
-      <c r="H832" s="7"/>
+      <c r="F832" s="8"/>
+      <c r="H832" s="8"/>
     </row>
     <row r="833">
-      <c r="F833" s="7"/>
-      <c r="H833" s="7"/>
+      <c r="F833" s="8"/>
+      <c r="H833" s="8"/>
     </row>
     <row r="834">
-      <c r="F834" s="7"/>
-      <c r="H834" s="7"/>
+      <c r="F834" s="8"/>
+      <c r="H834" s="8"/>
     </row>
     <row r="835">
-      <c r="F835" s="7"/>
-      <c r="H835" s="7"/>
+      <c r="F835" s="8"/>
+      <c r="H835" s="8"/>
     </row>
     <row r="836">
-      <c r="F836" s="7"/>
-      <c r="H836" s="7"/>
+      <c r="F836" s="8"/>
+      <c r="H836" s="8"/>
     </row>
     <row r="837">
-      <c r="F837" s="7"/>
-      <c r="H837" s="7"/>
+      <c r="F837" s="8"/>
+      <c r="H837" s="8"/>
     </row>
     <row r="838">
-      <c r="F838" s="7"/>
-      <c r="H838" s="7"/>
+      <c r="F838" s="8"/>
+      <c r="H838" s="8"/>
     </row>
     <row r="839">
-      <c r="F839" s="7"/>
-      <c r="H839" s="7"/>
+      <c r="F839" s="8"/>
+      <c r="H839" s="8"/>
     </row>
     <row r="840">
-      <c r="F840" s="7"/>
-      <c r="H840" s="7"/>
+      <c r="F840" s="8"/>
+      <c r="H840" s="8"/>
     </row>
     <row r="841">
-      <c r="F841" s="7"/>
-      <c r="H841" s="7"/>
+      <c r="F841" s="8"/>
+      <c r="H841" s="8"/>
     </row>
     <row r="842">
-      <c r="F842" s="7"/>
-      <c r="H842" s="7"/>
+      <c r="F842" s="8"/>
+      <c r="H842" s="8"/>
     </row>
     <row r="843">
-      <c r="F843" s="7"/>
-      <c r="H843" s="7"/>
+      <c r="F843" s="8"/>
+      <c r="H843" s="8"/>
     </row>
     <row r="844">
-      <c r="F844" s="7"/>
-      <c r="H844" s="7"/>
+      <c r="F844" s="8"/>
+      <c r="H844" s="8"/>
     </row>
     <row r="845">
-      <c r="F845" s="7"/>
-      <c r="H845" s="7"/>
+      <c r="F845" s="8"/>
+      <c r="H845" s="8"/>
     </row>
     <row r="846">
-      <c r="F846" s="7"/>
-      <c r="H846" s="7"/>
+      <c r="F846" s="8"/>
+      <c r="H846" s="8"/>
     </row>
     <row r="847">
-      <c r="F847" s="7"/>
-      <c r="H847" s="7"/>
+      <c r="F847" s="8"/>
+      <c r="H847" s="8"/>
     </row>
     <row r="848">
-      <c r="F848" s="7"/>
-      <c r="H848" s="7"/>
+      <c r="F848" s="8"/>
+      <c r="H848" s="8"/>
     </row>
     <row r="849">
-      <c r="F849" s="7"/>
-      <c r="H849" s="7"/>
+      <c r="F849" s="8"/>
+      <c r="H849" s="8"/>
     </row>
     <row r="850">
-      <c r="F850" s="7"/>
-      <c r="H850" s="7"/>
+      <c r="F850" s="8"/>
+      <c r="H850" s="8"/>
     </row>
     <row r="851">
-      <c r="F851" s="7"/>
-      <c r="H851" s="7"/>
+      <c r="F851" s="8"/>
+      <c r="H851" s="8"/>
     </row>
     <row r="852">
-      <c r="F852" s="7"/>
-      <c r="H852" s="7"/>
+      <c r="F852" s="8"/>
+      <c r="H852" s="8"/>
     </row>
     <row r="853">
-      <c r="F853" s="7"/>
-      <c r="H853" s="7"/>
+      <c r="F853" s="8"/>
+      <c r="H853" s="8"/>
     </row>
     <row r="854">
-      <c r="F854" s="7"/>
-      <c r="H854" s="7"/>
+      <c r="F854" s="8"/>
+      <c r="H854" s="8"/>
     </row>
     <row r="855">
-      <c r="F855" s="7"/>
-      <c r="H855" s="7"/>
+      <c r="F855" s="8"/>
+      <c r="H855" s="8"/>
     </row>
     <row r="856">
-      <c r="F856" s="7"/>
-      <c r="H856" s="7"/>
+      <c r="F856" s="8"/>
+      <c r="H856" s="8"/>
     </row>
     <row r="857">
-      <c r="F857" s="7"/>
-      <c r="H857" s="7"/>
+      <c r="F857" s="8"/>
+      <c r="H857" s="8"/>
     </row>
     <row r="858">
-      <c r="F858" s="7"/>
-      <c r="H858" s="7"/>
+      <c r="F858" s="8"/>
+      <c r="H858" s="8"/>
     </row>
     <row r="859">
-      <c r="F859" s="7"/>
-      <c r="H859" s="7"/>
+      <c r="F859" s="8"/>
+      <c r="H859" s="8"/>
     </row>
     <row r="860">
-      <c r="F860" s="7"/>
-      <c r="H860" s="7"/>
+      <c r="F860" s="8"/>
+      <c r="H860" s="8"/>
     </row>
     <row r="861">
-      <c r="F861" s="7"/>
-      <c r="H861" s="7"/>
+      <c r="F861" s="8"/>
+      <c r="H861" s="8"/>
     </row>
     <row r="862">
-      <c r="F862" s="7"/>
-      <c r="H862" s="7"/>
+      <c r="F862" s="8"/>
+      <c r="H862" s="8"/>
     </row>
     <row r="863">
-      <c r="F863" s="7"/>
-      <c r="H863" s="7"/>
+      <c r="F863" s="8"/>
+      <c r="H863" s="8"/>
     </row>
     <row r="864">
-      <c r="F864" s="7"/>
-      <c r="H864" s="7"/>
+      <c r="F864" s="8"/>
+      <c r="H864" s="8"/>
     </row>
     <row r="865">
-      <c r="F865" s="7"/>
-      <c r="H865" s="7"/>
+      <c r="F865" s="8"/>
+      <c r="H865" s="8"/>
     </row>
     <row r="866">
-      <c r="F866" s="7"/>
-      <c r="H866" s="7"/>
+      <c r="F866" s="8"/>
+      <c r="H866" s="8"/>
     </row>
     <row r="867">
-      <c r="F867" s="7"/>
-      <c r="H867" s="7"/>
+      <c r="F867" s="8"/>
+      <c r="H867" s="8"/>
     </row>
     <row r="868">
-      <c r="F868" s="7"/>
-      <c r="H868" s="7"/>
+      <c r="F868" s="8"/>
+      <c r="H868" s="8"/>
     </row>
     <row r="869">
-      <c r="F869" s="7"/>
-      <c r="H869" s="7"/>
+      <c r="F869" s="8"/>
+      <c r="H869" s="8"/>
     </row>
     <row r="870">
-      <c r="F870" s="7"/>
-      <c r="H870" s="7"/>
+      <c r="F870" s="8"/>
+      <c r="H870" s="8"/>
     </row>
     <row r="871">
-      <c r="F871" s="7"/>
-      <c r="H871" s="7"/>
+      <c r="F871" s="8"/>
+      <c r="H871" s="8"/>
     </row>
     <row r="872">
-      <c r="F872" s="7"/>
-      <c r="H872" s="7"/>
+      <c r="F872" s="8"/>
+      <c r="H872" s="8"/>
     </row>
     <row r="873">
-      <c r="F873" s="7"/>
-      <c r="H873" s="7"/>
+      <c r="F873" s="8"/>
+      <c r="H873" s="8"/>
     </row>
     <row r="874">
-      <c r="F874" s="7"/>
-      <c r="H874" s="7"/>
+      <c r="F874" s="8"/>
+      <c r="H874" s="8"/>
     </row>
     <row r="875">
-      <c r="F875" s="7"/>
-      <c r="H875" s="7"/>
+      <c r="F875" s="8"/>
+      <c r="H875" s="8"/>
     </row>
     <row r="876">
-      <c r="F876" s="7"/>
-      <c r="H876" s="7"/>
+      <c r="F876" s="8"/>
+      <c r="H876" s="8"/>
     </row>
     <row r="877">
-      <c r="F877" s="7"/>
-      <c r="H877" s="7"/>
+      <c r="F877" s="8"/>
+      <c r="H877" s="8"/>
     </row>
     <row r="878">
-      <c r="F878" s="7"/>
-      <c r="H878" s="7"/>
+      <c r="F878" s="8"/>
+      <c r="H878" s="8"/>
     </row>
     <row r="879">
-      <c r="F879" s="7"/>
-      <c r="H879" s="7"/>
+      <c r="F879" s="8"/>
+      <c r="H879" s="8"/>
     </row>
     <row r="880">
-      <c r="F880" s="7"/>
-      <c r="H880" s="7"/>
+      <c r="F880" s="8"/>
+      <c r="H880" s="8"/>
     </row>
     <row r="881">
-      <c r="F881" s="7"/>
-      <c r="H881" s="7"/>
+      <c r="F881" s="8"/>
+      <c r="H881" s="8"/>
     </row>
     <row r="882">
-      <c r="F882" s="7"/>
-      <c r="H882" s="7"/>
+      <c r="F882" s="8"/>
+      <c r="H882" s="8"/>
     </row>
     <row r="883">
-      <c r="F883" s="7"/>
-      <c r="H883" s="7"/>
+      <c r="F883" s="8"/>
+      <c r="H883" s="8"/>
     </row>
     <row r="884">
-      <c r="F884" s="7"/>
-      <c r="H884" s="7"/>
+      <c r="F884" s="8"/>
+      <c r="H884" s="8"/>
     </row>
     <row r="885">
-      <c r="F885" s="7"/>
-      <c r="H885" s="7"/>
+      <c r="F885" s="8"/>
+      <c r="H885" s="8"/>
     </row>
     <row r="886">
-      <c r="F886" s="7"/>
-      <c r="H886" s="7"/>
+      <c r="F886" s="8"/>
+      <c r="H886" s="8"/>
     </row>
     <row r="887">
-      <c r="F887" s="7"/>
-      <c r="H887" s="7"/>
+      <c r="F887" s="8"/>
+      <c r="H887" s="8"/>
     </row>
     <row r="888">
-      <c r="F888" s="7"/>
-      <c r="H888" s="7"/>
+      <c r="F888" s="8"/>
+      <c r="H888" s="8"/>
     </row>
     <row r="889">
-      <c r="F889" s="7"/>
-      <c r="H889" s="7"/>
+      <c r="F889" s="8"/>
+      <c r="H889" s="8"/>
     </row>
     <row r="890">
-      <c r="F890" s="7"/>
-      <c r="H890" s="7"/>
+      <c r="F890" s="8"/>
+      <c r="H890" s="8"/>
     </row>
     <row r="891">
-      <c r="F891" s="7"/>
-      <c r="H891" s="7"/>
+      <c r="F891" s="8"/>
+      <c r="H891" s="8"/>
     </row>
     <row r="892">
-      <c r="F892" s="7"/>
-      <c r="H892" s="7"/>
+      <c r="F892" s="8"/>
+      <c r="H892" s="8"/>
     </row>
     <row r="893">
-      <c r="F893" s="7"/>
-      <c r="H893" s="7"/>
+      <c r="F893" s="8"/>
+      <c r="H893" s="8"/>
     </row>
     <row r="894">
-      <c r="F894" s="7"/>
-      <c r="H894" s="7"/>
+      <c r="F894" s="8"/>
+      <c r="H894" s="8"/>
     </row>
     <row r="895">
-      <c r="F895" s="7"/>
-      <c r="H895" s="7"/>
+      <c r="F895" s="8"/>
+      <c r="H895" s="8"/>
     </row>
     <row r="896">
-      <c r="F896" s="7"/>
-      <c r="H896" s="7"/>
+      <c r="F896" s="8"/>
+      <c r="H896" s="8"/>
     </row>
     <row r="897">
-      <c r="F897" s="7"/>
-      <c r="H897" s="7"/>
+      <c r="F897" s="8"/>
+      <c r="H897" s="8"/>
     </row>
     <row r="898">
-      <c r="F898" s="7"/>
-      <c r="H898" s="7"/>
+      <c r="F898" s="8"/>
+      <c r="H898" s="8"/>
     </row>
     <row r="899">
-      <c r="F899" s="7"/>
-      <c r="H899" s="7"/>
+      <c r="F899" s="8"/>
+      <c r="H899" s="8"/>
     </row>
     <row r="900">
-      <c r="F900" s="7"/>
-      <c r="H900" s="7"/>
+      <c r="F900" s="8"/>
+      <c r="H900" s="8"/>
     </row>
     <row r="901">
-      <c r="F901" s="7"/>
-      <c r="H901" s="7"/>
+      <c r="F901" s="8"/>
+      <c r="H901" s="8"/>
     </row>
     <row r="902">
-      <c r="F902" s="7"/>
-      <c r="H902" s="7"/>
+      <c r="F902" s="8"/>
+      <c r="H902" s="8"/>
     </row>
     <row r="903">
-      <c r="F903" s="7"/>
-      <c r="H903" s="7"/>
+      <c r="F903" s="8"/>
+      <c r="H903" s="8"/>
     </row>
     <row r="904">
-      <c r="F904" s="7"/>
-      <c r="H904" s="7"/>
+      <c r="F904" s="8"/>
+      <c r="H904" s="8"/>
     </row>
     <row r="905">
-      <c r="F905" s="7"/>
-      <c r="H905" s="7"/>
+      <c r="F905" s="8"/>
+      <c r="H905" s="8"/>
     </row>
     <row r="906">
-      <c r="F906" s="7"/>
-      <c r="H906" s="7"/>
+      <c r="F906" s="8"/>
+      <c r="H906" s="8"/>
     </row>
     <row r="907">
-      <c r="F907" s="7"/>
-      <c r="H907" s="7"/>
+      <c r="F907" s="8"/>
+      <c r="H907" s="8"/>
     </row>
     <row r="908">
-      <c r="F908" s="7"/>
-      <c r="H908" s="7"/>
+      <c r="F908" s="8"/>
+      <c r="H908" s="8"/>
     </row>
     <row r="909">
-      <c r="F909" s="7"/>
-      <c r="H909" s="7"/>
+      <c r="F909" s="8"/>
+      <c r="H909" s="8"/>
     </row>
     <row r="910">
-      <c r="F910" s="7"/>
-      <c r="H910" s="7"/>
+      <c r="F910" s="8"/>
+      <c r="H910" s="8"/>
     </row>
     <row r="911">
-      <c r="F911" s="7"/>
-      <c r="H911" s="7"/>
+      <c r="F911" s="8"/>
+      <c r="H911" s="8"/>
     </row>
     <row r="912">
-      <c r="F912" s="7"/>
-      <c r="H912" s="7"/>
+      <c r="F912" s="8"/>
+      <c r="H912" s="8"/>
     </row>
     <row r="913">
-      <c r="F913" s="7"/>
-      <c r="H913" s="7"/>
+      <c r="F913" s="8"/>
+      <c r="H913" s="8"/>
     </row>
     <row r="914">
-      <c r="F914" s="7"/>
-      <c r="H914" s="7"/>
+      <c r="F914" s="8"/>
+      <c r="H914" s="8"/>
     </row>
     <row r="915">
-      <c r="F915" s="7"/>
-      <c r="H915" s="7"/>
+      <c r="F915" s="8"/>
+      <c r="H915" s="8"/>
     </row>
     <row r="916">
-      <c r="F916" s="7"/>
-      <c r="H916" s="7"/>
+      <c r="F916" s="8"/>
+      <c r="H916" s="8"/>
     </row>
     <row r="917">
-      <c r="F917" s="7"/>
-      <c r="H917" s="7"/>
+      <c r="F917" s="8"/>
+      <c r="H917" s="8"/>
     </row>
     <row r="918">
-      <c r="F918" s="7"/>
-      <c r="H918" s="7"/>
+      <c r="F918" s="8"/>
+      <c r="H918" s="8"/>
     </row>
     <row r="919">
-      <c r="F919" s="7"/>
-      <c r="H919" s="7"/>
+      <c r="F919" s="8"/>
+      <c r="H919" s="8"/>
     </row>
     <row r="920">
-      <c r="F920" s="7"/>
-      <c r="H920" s="7"/>
+      <c r="F920" s="8"/>
+      <c r="H920" s="8"/>
     </row>
     <row r="921">
-      <c r="F921" s="7"/>
-      <c r="H921" s="7"/>
+      <c r="F921" s="8"/>
+      <c r="H921" s="8"/>
     </row>
     <row r="922">
-      <c r="F922" s="7"/>
-      <c r="H922" s="7"/>
+      <c r="F922" s="8"/>
+      <c r="H922" s="8"/>
     </row>
     <row r="923">
-      <c r="F923" s="7"/>
-      <c r="H923" s="7"/>
+      <c r="F923" s="8"/>
+      <c r="H923" s="8"/>
     </row>
     <row r="924">
-      <c r="F924" s="7"/>
-      <c r="H924" s="7"/>
+      <c r="F924" s="8"/>
+      <c r="H924" s="8"/>
     </row>
     <row r="925">
-      <c r="F925" s="7"/>
-      <c r="H925" s="7"/>
+      <c r="F925" s="8"/>
+      <c r="H925" s="8"/>
     </row>
     <row r="926">
-      <c r="F926" s="7"/>
-      <c r="H926" s="7"/>
+      <c r="F926" s="8"/>
+      <c r="H926" s="8"/>
     </row>
     <row r="927">
-      <c r="F927" s="7"/>
-      <c r="H927" s="7"/>
+      <c r="F927" s="8"/>
+      <c r="H927" s="8"/>
     </row>
     <row r="928">
-      <c r="F928" s="7"/>
-      <c r="H928" s="7"/>
+      <c r="F928" s="8"/>
+      <c r="H928" s="8"/>
     </row>
     <row r="929">
-      <c r="F929" s="7"/>
-      <c r="H929" s="7"/>
+      <c r="F929" s="8"/>
+      <c r="H929" s="8"/>
     </row>
     <row r="930">
-      <c r="F930" s="7"/>
-      <c r="H930" s="7"/>
+      <c r="F930" s="8"/>
+      <c r="H930" s="8"/>
     </row>
     <row r="931">
-      <c r="F931" s="7"/>
-      <c r="H931" s="7"/>
+      <c r="F931" s="8"/>
+      <c r="H931" s="8"/>
     </row>
     <row r="932">
-      <c r="F932" s="7"/>
-      <c r="H932" s="7"/>
+      <c r="F932" s="8"/>
+      <c r="H932" s="8"/>
     </row>
     <row r="933">
-      <c r="F933" s="7"/>
-      <c r="H933" s="7"/>
+      <c r="F933" s="8"/>
+      <c r="H933" s="8"/>
     </row>
     <row r="934">
-      <c r="F934" s="7"/>
-      <c r="H934" s="7"/>
+      <c r="F934" s="8"/>
+      <c r="H934" s="8"/>
     </row>
     <row r="935">
-      <c r="F935" s="7"/>
-      <c r="H935" s="7"/>
+      <c r="F935" s="8"/>
+      <c r="H935" s="8"/>
     </row>
     <row r="936">
-      <c r="F936" s="7"/>
-      <c r="H936" s="7"/>
+      <c r="F936" s="8"/>
+      <c r="H936" s="8"/>
     </row>
     <row r="937">
-      <c r="F937" s="7"/>
-      <c r="H937" s="7"/>
+      <c r="F937" s="8"/>
+      <c r="H937" s="8"/>
     </row>
     <row r="938">
-      <c r="F938" s="7"/>
-      <c r="H938" s="7"/>
+      <c r="F938" s="8"/>
+      <c r="H938" s="8"/>
     </row>
     <row r="939">
-      <c r="F939" s="7"/>
-      <c r="H939" s="7"/>
+      <c r="F939" s="8"/>
+      <c r="H939" s="8"/>
     </row>
     <row r="940">
-      <c r="F940" s="7"/>
-      <c r="H940" s="7"/>
+      <c r="F940" s="8"/>
+      <c r="H940" s="8"/>
     </row>
     <row r="941">
-      <c r="F941" s="7"/>
-      <c r="H941" s="7"/>
+      <c r="F941" s="8"/>
+      <c r="H941" s="8"/>
     </row>
     <row r="942">
-      <c r="F942" s="7"/>
-      <c r="H942" s="7"/>
+      <c r="F942" s="8"/>
+      <c r="H942" s="8"/>
     </row>
     <row r="943">
-      <c r="F943" s="7"/>
-      <c r="H943" s="7"/>
+      <c r="F943" s="8"/>
+      <c r="H943" s="8"/>
     </row>
     <row r="944">
-      <c r="F944" s="7"/>
-      <c r="H944" s="7"/>
+      <c r="F944" s="8"/>
+      <c r="H944" s="8"/>
     </row>
     <row r="945">
-      <c r="F945" s="7"/>
-      <c r="H945" s="7"/>
+      <c r="F945" s="8"/>
+      <c r="H945" s="8"/>
     </row>
     <row r="946">
-      <c r="F946" s="7"/>
-      <c r="H946" s="7"/>
+      <c r="F946" s="8"/>
+      <c r="H946" s="8"/>
     </row>
     <row r="947">
-      <c r="F947" s="7"/>
-      <c r="H947" s="7"/>
+      <c r="F947" s="8"/>
+      <c r="H947" s="8"/>
     </row>
     <row r="948">
-      <c r="F948" s="7"/>
-      <c r="H948" s="7"/>
+      <c r="F948" s="8"/>
+      <c r="H948" s="8"/>
     </row>
     <row r="949">
-      <c r="F949" s="7"/>
-      <c r="H949" s="7"/>
+      <c r="F949" s="8"/>
+      <c r="H949" s="8"/>
     </row>
     <row r="950">
-      <c r="F950" s="7"/>
-      <c r="H950" s="7"/>
+      <c r="F950" s="8"/>
+      <c r="H950" s="8"/>
     </row>
     <row r="951">
-      <c r="F951" s="7"/>
-      <c r="H951" s="7"/>
+      <c r="F951" s="8"/>
+      <c r="H951" s="8"/>
     </row>
     <row r="952">
-      <c r="F952" s="7"/>
-      <c r="H952" s="7"/>
+      <c r="F952" s="8"/>
+      <c r="H952" s="8"/>
     </row>
     <row r="953">
-      <c r="F953" s="7"/>
-      <c r="H953" s="7"/>
+      <c r="F953" s="8"/>
+      <c r="H953" s="8"/>
     </row>
     <row r="954">
-      <c r="F954" s="7"/>
-      <c r="H954" s="7"/>
+      <c r="F954" s="8"/>
+      <c r="H954" s="8"/>
     </row>
     <row r="955">
-      <c r="F955" s="7"/>
-      <c r="H955" s="7"/>
+      <c r="F955" s="8"/>
+      <c r="H955" s="8"/>
     </row>
     <row r="956">
-      <c r="F956" s="7"/>
-      <c r="H956" s="7"/>
+      <c r="F956" s="8"/>
+      <c r="H956" s="8"/>
     </row>
     <row r="957">
-      <c r="F957" s="7"/>
-      <c r="H957" s="7"/>
+      <c r="F957" s="8"/>
+      <c r="H957" s="8"/>
     </row>
     <row r="958">
-      <c r="F958" s="7"/>
-      <c r="H958" s="7"/>
+      <c r="F958" s="8"/>
+      <c r="H958" s="8"/>
     </row>
     <row r="959">
-      <c r="F959" s="7"/>
-      <c r="H959" s="7"/>
+      <c r="F959" s="8"/>
+      <c r="H959" s="8"/>
     </row>
     <row r="960">
-      <c r="F960" s="7"/>
-      <c r="H960" s="7"/>
+      <c r="F960" s="8"/>
+      <c r="H960" s="8"/>
     </row>
     <row r="961">
-      <c r="F961" s="7"/>
-      <c r="H961" s="7"/>
+      <c r="F961" s="8"/>
+      <c r="H961" s="8"/>
     </row>
     <row r="962">
-      <c r="F962" s="7"/>
-      <c r="H962" s="7"/>
+      <c r="F962" s="8"/>
+      <c r="H962" s="8"/>
     </row>
     <row r="963">
-      <c r="F963" s="7"/>
-      <c r="H963" s="7"/>
+      <c r="F963" s="8"/>
+      <c r="H963" s="8"/>
     </row>
     <row r="964">
-      <c r="F964" s="7"/>
-      <c r="H964" s="7"/>
+      <c r="F964" s="8"/>
+      <c r="H964" s="8"/>
     </row>
     <row r="965">
-      <c r="F965" s="7"/>
-      <c r="H965" s="7"/>
+      <c r="F965" s="8"/>
+      <c r="H965" s="8"/>
     </row>
     <row r="966">
-      <c r="F966" s="7"/>
-      <c r="H966" s="7"/>
+      <c r="F966" s="8"/>
+      <c r="H966" s="8"/>
     </row>
     <row r="967">
-      <c r="F967" s="7"/>
-      <c r="H967" s="7"/>
+      <c r="F967" s="8"/>
+      <c r="H967" s="8"/>
     </row>
     <row r="968">
-      <c r="F968" s="7"/>
-      <c r="H968" s="7"/>
+      <c r="F968" s="8"/>
+      <c r="H968" s="8"/>
     </row>
     <row r="969">
-      <c r="F969" s="7"/>
-      <c r="H969" s="7"/>
+      <c r="F969" s="8"/>
+      <c r="H969" s="8"/>
     </row>
     <row r="970">
-      <c r="F970" s="7"/>
-      <c r="H970" s="7"/>
+      <c r="F970" s="8"/>
+      <c r="H970" s="8"/>
     </row>
     <row r="971">
-      <c r="F971" s="7"/>
-      <c r="H971" s="7"/>
+      <c r="F971" s="8"/>
+      <c r="H971" s="8"/>
     </row>
     <row r="972">
-      <c r="F972" s="7"/>
-      <c r="H972" s="7"/>
+      <c r="F972" s="8"/>
+      <c r="H972" s="8"/>
     </row>
     <row r="973">
-      <c r="F973" s="7"/>
-      <c r="H973" s="7"/>
+      <c r="F973" s="8"/>
+      <c r="H973" s="8"/>
     </row>
     <row r="974">
-      <c r="F974" s="7"/>
-      <c r="H974" s="7"/>
+      <c r="F974" s="8"/>
+      <c r="H974" s="8"/>
     </row>
     <row r="975">
-      <c r="F975" s="7"/>
-      <c r="H975" s="7"/>
+      <c r="F975" s="8"/>
+      <c r="H975" s="8"/>
     </row>
     <row r="976">
-      <c r="F976" s="7"/>
-      <c r="H976" s="7"/>
+      <c r="F976" s="8"/>
+      <c r="H976" s="8"/>
     </row>
     <row r="977">
-      <c r="F977" s="7"/>
-      <c r="H977" s="7"/>
+      <c r="F977" s="8"/>
+      <c r="H977" s="8"/>
     </row>
     <row r="978">
-      <c r="F978" s="7"/>
-      <c r="H978" s="7"/>
+      <c r="F978" s="8"/>
+      <c r="H978" s="8"/>
     </row>
     <row r="979">
-      <c r="F979" s="7"/>
-      <c r="H979" s="7"/>
+      <c r="F979" s="8"/>
+      <c r="H979" s="8"/>
     </row>
     <row r="980">
-      <c r="F980" s="7"/>
-      <c r="H980" s="7"/>
+      <c r="F980" s="8"/>
+      <c r="H980" s="8"/>
     </row>
     <row r="981">
-      <c r="F981" s="7"/>
-      <c r="H981" s="7"/>
+      <c r="F981" s="8"/>
+      <c r="H981" s="8"/>
     </row>
     <row r="982">
-      <c r="F982" s="7"/>
-      <c r="H982" s="7"/>
+      <c r="F982" s="8"/>
+      <c r="H982" s="8"/>
     </row>
     <row r="983">
-      <c r="F983" s="7"/>
-      <c r="H983" s="7"/>
+      <c r="F983" s="8"/>
+      <c r="H983" s="8"/>
     </row>
     <row r="984">
-      <c r="F984" s="7"/>
-      <c r="H984" s="7"/>
+      <c r="F984" s="8"/>
+      <c r="H984" s="8"/>
     </row>
     <row r="985">
-      <c r="F985" s="7"/>
-      <c r="H985" s="7"/>
+      <c r="F985" s="8"/>
+      <c r="H985" s="8"/>
     </row>
     <row r="986">
-      <c r="F986" s="7"/>
-      <c r="H986" s="7"/>
+      <c r="F986" s="8"/>
+      <c r="H986" s="8"/>
     </row>
     <row r="987">
-      <c r="F987" s="7"/>
-      <c r="H987" s="7"/>
+      <c r="F987" s="8"/>
+      <c r="H987" s="8"/>
     </row>
     <row r="988">
-      <c r="F988" s="7"/>
-      <c r="H988" s="7"/>
+      <c r="F988" s="8"/>
+      <c r="H988" s="8"/>
     </row>
     <row r="989">
-      <c r="F989" s="7"/>
-      <c r="H989" s="7"/>
+      <c r="F989" s="8"/>
+      <c r="H989" s="8"/>
     </row>
     <row r="990">
-      <c r="F990" s="7"/>
-      <c r="H990" s="7"/>
+      <c r="F990" s="8"/>
+      <c r="H990" s="8"/>
     </row>
     <row r="991">
-      <c r="F991" s="7"/>
-      <c r="H991" s="7"/>
+      <c r="F991" s="8"/>
+      <c r="H991" s="8"/>
     </row>
     <row r="992">
-      <c r="F992" s="7"/>
-      <c r="H992" s="7"/>
+      <c r="F992" s="8"/>
+      <c r="H992" s="8"/>
     </row>
     <row r="993">
-      <c r="F993" s="7"/>
-      <c r="H993" s="7"/>
+      <c r="F993" s="8"/>
+      <c r="H993" s="8"/>
     </row>
     <row r="994">
-      <c r="F994" s="7"/>
-      <c r="H994" s="7"/>
+      <c r="F994" s="8"/>
+      <c r="H994" s="8"/>
     </row>
     <row r="995">
-      <c r="F995" s="7"/>
-      <c r="H995" s="7"/>
+      <c r="F995" s="8"/>
+      <c r="H995" s="8"/>
     </row>
     <row r="996">
-      <c r="F996" s="7"/>
-      <c r="H996" s="7"/>
+      <c r="F996" s="8"/>
+      <c r="H996" s="8"/>
     </row>
     <row r="997">
-      <c r="F997" s="7"/>
-      <c r="H997" s="7"/>
+      <c r="F997" s="8"/>
+      <c r="H997" s="8"/>
     </row>
     <row r="998">
-      <c r="F998" s="7"/>
-      <c r="H998" s="7"/>
+      <c r="F998" s="8"/>
+      <c r="H998" s="8"/>
     </row>
     <row r="999">
-      <c r="F999" s="7"/>
-      <c r="H999" s="7"/>
+      <c r="F999" s="8"/>
+      <c r="H999" s="8"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
